--- a/Bulk Loads/3723/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/3723/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -507,7 +507,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 01, 2024</t>
+          <t>August 05, 2024</t>
         </is>
       </c>
     </row>

--- a/Bulk Loads/3723/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/3723/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -69,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -83,6 +83,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -478,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:S541"/>
   <sheetViews>
@@ -499,6 +502,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1"/>
@@ -513,7 +517,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 29, 2024</t>
+          <t>September 18, 2024</t>
         </is>
       </c>
     </row>
@@ -675,7 +679,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -695,7 +699,7 @@
       </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -726,7 +730,7 @@
         <f>IF(E11&gt;1,(1.732*D11*F11)/1000,(D11*F11)/1000)</f>
         <v/>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -746,7 +750,7 @@
       </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -768,6 +772,7 @@
       </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
+      <c r="S13" s="9" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -783,7 +788,7 @@
       </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -814,6 +819,7 @@
         <f>IF(E15&gt;1,(1.732*D15*F15)/1000,(D15*F15)/1000)</f>
         <v/>
       </c>
+      <c r="S15" s="9" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -829,7 +835,7 @@
       </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -851,6 +857,7 @@
       </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
+      <c r="S17" s="9" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -868,6 +875,7 @@
       </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
+      <c r="S18" s="9" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -894,7 +902,7 @@
         <f>IF(E19&gt;1,(1.732*D19*F19)/1000,(D19*F19)/1000)</f>
         <v/>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S19" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -925,7 +933,7 @@
         <f>IF(E20&gt;1,(1.732*D20*F20)/1000,(D20*F20)/1000)</f>
         <v/>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S20" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -945,7 +953,7 @@
       </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
-      <c r="S21" t="inlineStr">
+      <c r="S21" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -965,7 +973,7 @@
       </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
-      <c r="S22" t="inlineStr">
+      <c r="S22" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #12</t>
         </is>
@@ -987,6 +995,7 @@
       </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
+      <c r="S23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -1002,7 +1011,7 @@
       </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
-      <c r="S24" t="inlineStr">
+      <c r="S24" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -1022,7 +1031,7 @@
       </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
-      <c r="S25" t="inlineStr">
+      <c r="S25" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #12</t>
         </is>
@@ -1053,7 +1062,7 @@
         <f>IF(E26&gt;1,(1.732*D26*F26)/1000,(D26*F26)/1000)</f>
         <v/>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="S26" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1075,6 +1084,7 @@
       </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
+      <c r="S27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -1092,6 +1102,7 @@
       </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
+      <c r="S28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -1107,7 +1118,7 @@
       </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
-      <c r="S29" t="inlineStr">
+      <c r="S29" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1127,7 +1138,7 @@
       </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="8" t="n"/>
-      <c r="S30" t="inlineStr">
+      <c r="S30" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -1147,7 +1158,7 @@
       </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
-      <c r="S31" t="inlineStr">
+      <c r="S31" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #18</t>
         </is>
@@ -1167,7 +1178,7 @@
       </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
-      <c r="S32" t="inlineStr">
+      <c r="S32" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1189,6 +1200,7 @@
       </c>
       <c r="F33" s="7" t="n"/>
       <c r="G33" s="8" t="n"/>
+      <c r="S33" s="9" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -1215,7 +1227,7 @@
         <f>IF(E34&gt;1,(1.732*D34*F34)/1000,(D34*F34)/1000)</f>
         <v/>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="S34" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1235,7 +1247,7 @@
       </c>
       <c r="F35" s="7" t="n"/>
       <c r="G35" s="8" t="n"/>
-      <c r="S35" t="inlineStr">
+      <c r="S35" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1266,7 +1278,7 @@
         <f>IF(E36&gt;1,(1.732*D36*F36)/1000,(D36*F36)/1000)</f>
         <v/>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="S36" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -1286,7 +1298,7 @@
       </c>
       <c r="F37" s="7" t="n"/>
       <c r="G37" s="8" t="n"/>
-      <c r="S37" t="inlineStr">
+      <c r="S37" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -1308,6 +1320,7 @@
       </c>
       <c r="F38" s="7" t="n"/>
       <c r="G38" s="8" t="n"/>
+      <c r="S38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -1328,7 +1341,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="S39" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #26</t>
         </is>
@@ -1361,7 +1374,7 @@
       <c r="J40" t="n">
         <v>50</v>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="S40" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -1386,7 +1399,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="S41" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #26</t>
         </is>
@@ -1419,7 +1432,7 @@
       <c r="J42" t="n">
         <v>50</v>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="S42" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -1443,6 +1456,7 @@
       </c>
       <c r="F43" s="7" t="n"/>
       <c r="G43" s="8" t="n"/>
+      <c r="S43" s="9" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
@@ -1501,7 +1515,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="S45" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -1521,7 +1535,7 @@
       </c>
       <c r="F46" s="7" t="n"/>
       <c r="G46" s="8" t="n"/>
-      <c r="S46" t="inlineStr">
+      <c r="S46" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -1559,7 +1573,7 @@
           <t>(3)2"</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="S47" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1579,7 +1593,7 @@
       </c>
       <c r="F48" s="7" t="n"/>
       <c r="G48" s="8" t="n"/>
-      <c r="S48" t="inlineStr">
+      <c r="S48" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -1601,6 +1615,7 @@
       </c>
       <c r="F49" s="7" t="n"/>
       <c r="G49" s="8" t="n"/>
+      <c r="S49" s="9" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -1616,7 +1631,7 @@
       </c>
       <c r="F50" s="7" t="n"/>
       <c r="G50" s="8" t="n"/>
-      <c r="S50" t="inlineStr">
+      <c r="S50" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1649,7 +1664,7 @@
       <c r="J51" t="n">
         <v>50</v>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="S51" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -1669,7 +1684,7 @@
       </c>
       <c r="F52" s="7" t="n"/>
       <c r="G52" s="8" t="n"/>
-      <c r="S52" t="inlineStr">
+      <c r="S52" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1691,6 +1706,7 @@
       </c>
       <c r="F53" s="7" t="n"/>
       <c r="G53" s="8" t="n"/>
+      <c r="S53" s="9" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -1708,6 +1724,7 @@
       </c>
       <c r="F54" s="7" t="n"/>
       <c r="G54" s="8" t="n"/>
+      <c r="S54" s="9" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
@@ -1728,7 +1745,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="S55" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1748,7 +1765,7 @@
       </c>
       <c r="F56" s="7" t="n"/>
       <c r="G56" s="8" t="n"/>
-      <c r="S56" t="inlineStr">
+      <c r="S56" s="9" t="inlineStr">
         <is>
           <t>CEILING MOUNT</t>
         </is>
@@ -1781,7 +1798,7 @@
       <c r="J57" t="n">
         <v>25</v>
       </c>
-      <c r="S57" t="inlineStr">
+      <c r="S57" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #52</t>
         </is>
@@ -1819,6 +1836,7 @@
           <t>2"</t>
         </is>
       </c>
+      <c r="S58" s="9" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
@@ -1836,6 +1854,7 @@
       </c>
       <c r="F59" s="7" t="n"/>
       <c r="G59" s="8" t="n"/>
+      <c r="S59" s="9" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -1851,7 +1870,7 @@
       </c>
       <c r="F60" s="7" t="n"/>
       <c r="G60" s="8" t="n"/>
-      <c r="S60" t="inlineStr">
+      <c r="S60" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1871,7 +1890,7 @@
       </c>
       <c r="F61" s="7" t="n"/>
       <c r="G61" s="8" t="n"/>
-      <c r="S61" t="inlineStr">
+      <c r="S61" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1891,7 +1910,7 @@
       </c>
       <c r="F62" s="7" t="n"/>
       <c r="G62" s="8" t="n"/>
-      <c r="S62" t="inlineStr">
+      <c r="S62" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1913,6 +1932,7 @@
       </c>
       <c r="F63" s="7" t="n"/>
       <c r="G63" s="8" t="n"/>
+      <c r="S63" s="9" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
@@ -1930,6 +1950,7 @@
       </c>
       <c r="F64" s="7" t="n"/>
       <c r="G64" s="8" t="n"/>
+      <c r="S64" s="9" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
@@ -1945,7 +1966,7 @@
       </c>
       <c r="F65" s="7" t="n"/>
       <c r="G65" s="8" t="n"/>
-      <c r="S65" t="inlineStr">
+      <c r="S65" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #341</t>
         </is>
@@ -1965,7 +1986,7 @@
       </c>
       <c r="F66" s="7" t="n"/>
       <c r="G66" s="8" t="n"/>
-      <c r="S66" t="inlineStr">
+      <c r="S66" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -1998,7 +2019,7 @@
       <c r="J67" t="n">
         <v>50</v>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="S67" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -2042,7 +2063,7 @@
       <c r="P68" t="n">
         <v>6100</v>
       </c>
-      <c r="S68" t="inlineStr">
+      <c r="S68" s="9" t="inlineStr">
         <is>
           <t>180°F RINSE VENTLESS</t>
         </is>
@@ -2064,6 +2085,7 @@
       </c>
       <c r="F69" s="7" t="n"/>
       <c r="G69" s="8" t="n"/>
+      <c r="S69" s="9" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="5" t="n">
@@ -2084,7 +2106,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="S70" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2104,7 +2126,7 @@
       </c>
       <c r="F71" s="7" t="n"/>
       <c r="G71" s="8" t="n"/>
-      <c r="S71" t="inlineStr">
+      <c r="S71" s="9" t="inlineStr">
         <is>
           <t>CEILING MOUNT</t>
         </is>
@@ -2137,7 +2159,7 @@
       <c r="J72" t="n">
         <v>25</v>
       </c>
-      <c r="S72" t="inlineStr">
+      <c r="S72" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #67</t>
         </is>
@@ -2159,6 +2181,7 @@
       </c>
       <c r="F73" s="7" t="n"/>
       <c r="G73" s="8" t="n"/>
+      <c r="S73" s="9" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="5" t="n">
@@ -2176,6 +2199,7 @@
       </c>
       <c r="F74" s="7" t="n"/>
       <c r="G74" s="8" t="n"/>
+      <c r="S74" s="9" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="n">
@@ -2191,7 +2215,7 @@
       </c>
       <c r="F75" s="7" t="n"/>
       <c r="G75" s="8" t="n"/>
-      <c r="S75" t="inlineStr">
+      <c r="S75" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2211,7 +2235,7 @@
       </c>
       <c r="F76" s="7" t="n"/>
       <c r="G76" s="8" t="n"/>
-      <c r="S76" t="inlineStr">
+      <c r="S76" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -2252,7 +2276,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="S77" s="9" t="inlineStr">
         <is>
           <t>180°F RINSE VENTLESS</t>
         </is>
@@ -2272,7 +2296,7 @@
       </c>
       <c r="F78" s="7" t="n"/>
       <c r="G78" s="8" t="n"/>
-      <c r="S78" t="inlineStr">
+      <c r="S78" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -2296,6 +2320,7 @@
       </c>
       <c r="F79" s="7" t="n"/>
       <c r="G79" s="8" t="n"/>
+      <c r="S79" s="9" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
@@ -2336,7 +2361,7 @@
       </c>
       <c r="F81" s="7" t="n"/>
       <c r="G81" s="8" t="n"/>
-      <c r="S81" t="inlineStr">
+      <c r="S81" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2367,7 +2392,7 @@
         <f>IF(E82&gt;1,(1.732*D82*F82)/1000,(D82*F82)/1000)</f>
         <v/>
       </c>
-      <c r="S82" t="inlineStr">
+      <c r="S82" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2387,7 +2412,7 @@
       </c>
       <c r="F83" s="7" t="n"/>
       <c r="G83" s="8" t="n"/>
-      <c r="S83" t="inlineStr">
+      <c r="S83" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #82</t>
         </is>
@@ -2407,7 +2432,7 @@
       </c>
       <c r="F84" s="7" t="n"/>
       <c r="G84" s="8" t="n"/>
-      <c r="S84" t="inlineStr">
+      <c r="S84" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -2429,6 +2454,7 @@
       </c>
       <c r="F85" s="7" t="n"/>
       <c r="G85" s="8" t="n"/>
+      <c r="S85" s="9" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="5" t="n">
@@ -2457,6 +2483,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S86" s="9" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="5" t="n">
@@ -2472,7 +2499,7 @@
       </c>
       <c r="F87" s="7" t="n"/>
       <c r="G87" s="8" t="n"/>
-      <c r="S87" t="inlineStr">
+      <c r="S87" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #82</t>
         </is>
@@ -2508,7 +2535,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr">
+      <c r="S88" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM #82</t>
         </is>
@@ -2530,6 +2557,7 @@
       </c>
       <c r="F89" s="7" t="n"/>
       <c r="G89" s="8" t="n"/>
+      <c r="S89" s="9" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="5" t="n">
@@ -2547,6 +2575,7 @@
       </c>
       <c r="F90" s="7" t="n"/>
       <c r="G90" s="8" t="n"/>
+      <c r="S90" s="9" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="5" t="n">
@@ -2591,7 +2620,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S91" t="inlineStr">
+      <c r="S91" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2611,7 +2640,7 @@
       </c>
       <c r="F92" s="7" t="n"/>
       <c r="G92" s="8" t="n"/>
-      <c r="S92" t="inlineStr">
+      <c r="S92" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2649,7 +2678,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S93" t="inlineStr">
+      <c r="S93" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #91</t>
         </is>
@@ -2669,7 +2698,7 @@
       </c>
       <c r="F94" s="7" t="n"/>
       <c r="G94" s="8" t="n"/>
-      <c r="S94" t="inlineStr">
+      <c r="S94" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #91</t>
         </is>
@@ -2691,6 +2720,7 @@
       </c>
       <c r="F95" s="7" t="n"/>
       <c r="G95" s="8" t="n"/>
+      <c r="S95" s="9" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="5" t="n">
@@ -2706,7 +2736,7 @@
       </c>
       <c r="F96" s="7" t="n"/>
       <c r="G96" s="8" t="n"/>
-      <c r="S96" t="inlineStr">
+      <c r="S96" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2742,7 +2772,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S97" t="inlineStr">
+      <c r="S97" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM #91</t>
         </is>
@@ -2773,6 +2803,7 @@
         <f>IF(E98&gt;1,(1.732*D98*F98)/1000,(D98*F98)/1000)</f>
         <v/>
       </c>
+      <c r="S98" s="9" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="5" t="n">
@@ -2790,6 +2821,7 @@
       </c>
       <c r="F99" s="7" t="n"/>
       <c r="G99" s="8" t="n"/>
+      <c r="S99" s="9" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="5" t="n">
@@ -2807,6 +2839,7 @@
       </c>
       <c r="F100" s="7" t="n"/>
       <c r="G100" s="8" t="n"/>
+      <c r="S100" s="9" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="5" t="n">
@@ -2833,6 +2866,7 @@
         <f>IF(E101&gt;1,(1.732*D101*F101)/1000,(D101*F101)/1000)</f>
         <v/>
       </c>
+      <c r="S101" s="9" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="5" t="n">
@@ -2859,7 +2893,7 @@
         <f>IF(E102&gt;1,(1.732*D102*F102)/1000,(D102*F102)/1000)</f>
         <v/>
       </c>
-      <c r="S102" t="inlineStr">
+      <c r="S102" s="9" t="inlineStr">
         <is>
           <t>2 RING</t>
         </is>
@@ -2890,6 +2924,7 @@
         <f>IF(E103&gt;1,(1.732*D103*F103)/1000,(D103*F103)/1000)</f>
         <v/>
       </c>
+      <c r="S103" s="9" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="5" t="n">
@@ -2924,6 +2959,7 @@
           <t>1 1/2"</t>
         </is>
       </c>
+      <c r="S104" s="9" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="5" t="inlineStr">
@@ -2943,6 +2979,7 @@
       </c>
       <c r="F105" s="7" t="n"/>
       <c r="G105" s="8" t="n"/>
+      <c r="S105" s="9" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
@@ -3012,7 +3049,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S107" t="inlineStr">
+      <c r="S107" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3043,7 +3080,7 @@
         <f>IF(E108&gt;1,(1.732*D108*F108)/1000,(D108*F108)/1000)</f>
         <v/>
       </c>
-      <c r="S108" t="inlineStr">
+      <c r="S108" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -3063,7 +3100,7 @@
       </c>
       <c r="F109" s="7" t="n"/>
       <c r="G109" s="8" t="n"/>
-      <c r="S109" t="inlineStr">
+      <c r="S109" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #111</t>
         </is>
@@ -3083,7 +3120,7 @@
       </c>
       <c r="F110" s="7" t="n"/>
       <c r="G110" s="8" t="n"/>
-      <c r="S110" t="inlineStr">
+      <c r="S110" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3105,6 +3142,7 @@
       </c>
       <c r="F111" s="7" t="n"/>
       <c r="G111" s="8" t="n"/>
+      <c r="S111" s="9" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="5" t="n">
@@ -3136,7 +3174,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S112" t="inlineStr">
+      <c r="S112" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF #111</t>
         </is>
@@ -3161,7 +3199,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S113" t="inlineStr">
+      <c r="S113" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF #111</t>
         </is>
@@ -3181,7 +3219,7 @@
       </c>
       <c r="F114" s="7" t="n"/>
       <c r="G114" s="8" t="n"/>
-      <c r="S114" t="inlineStr">
+      <c r="S114" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #111</t>
         </is>
@@ -3203,6 +3241,7 @@
       </c>
       <c r="F115" s="7" t="n"/>
       <c r="G115" s="8" t="n"/>
+      <c r="S115" s="9" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="5" t="n">
@@ -3220,6 +3259,7 @@
       </c>
       <c r="F116" s="7" t="n"/>
       <c r="G116" s="8" t="n"/>
+      <c r="S116" s="9" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="5" t="n">
@@ -3235,7 +3275,7 @@
       </c>
       <c r="F117" s="7" t="n"/>
       <c r="G117" s="8" t="n"/>
-      <c r="S117" t="inlineStr">
+      <c r="S117" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3273,7 +3313,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S118" t="inlineStr">
+      <c r="S118" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3298,6 +3338,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S119" s="9" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="5" t="n">
@@ -3334,6 +3375,7 @@
           <t>1-1/4"</t>
         </is>
       </c>
+      <c r="S120" s="9" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="5" t="n">
@@ -3351,6 +3393,7 @@
       </c>
       <c r="F121" s="7" t="n"/>
       <c r="G121" s="8" t="n"/>
+      <c r="S121" s="9" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="5" t="n">
@@ -3377,7 +3420,7 @@
         <f>IF(E122&gt;1,(1.732*D122*F122)/1000,(D122*F122)/1000)</f>
         <v/>
       </c>
-      <c r="S122" t="inlineStr">
+      <c r="S122" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3397,7 +3440,7 @@
       </c>
       <c r="F123" s="7" t="n"/>
       <c r="G123" s="8" t="n"/>
-      <c r="S123" t="inlineStr">
+      <c r="S123" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3428,6 +3471,7 @@
         <f>IF(E124&gt;1,(1.732*D124*F124)/1000,(D124*F124)/1000)</f>
         <v/>
       </c>
+      <c r="S124" s="9" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="5" t="n">
@@ -3445,6 +3489,7 @@
       </c>
       <c r="F125" s="7" t="n"/>
       <c r="G125" s="8" t="n"/>
+      <c r="S125" s="9" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="5" t="n">
@@ -3462,6 +3507,7 @@
       </c>
       <c r="F126" s="7" t="n"/>
       <c r="G126" s="8" t="n"/>
+      <c r="S126" s="9" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="5" t="n">
@@ -3477,7 +3523,7 @@
       </c>
       <c r="F127" s="7" t="n"/>
       <c r="G127" s="8" t="n"/>
-      <c r="S127" t="inlineStr">
+      <c r="S127" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #111</t>
         </is>
@@ -3497,7 +3543,7 @@
       </c>
       <c r="F128" s="7" t="n"/>
       <c r="G128" s="8" t="n"/>
-      <c r="S128" t="inlineStr">
+      <c r="S128" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -3528,6 +3574,7 @@
         <f>IF(E129&gt;1,(1.732*D129*F129)/1000,(D129*F129)/1000)</f>
         <v/>
       </c>
+      <c r="S129" s="9" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="5" t="n">
@@ -3562,7 +3609,7 @@
       <c r="J130" t="n">
         <v>5</v>
       </c>
-      <c r="S130" t="inlineStr">
+      <c r="S130" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -3584,6 +3631,7 @@
       </c>
       <c r="F131" s="7" t="n"/>
       <c r="G131" s="8" t="n"/>
+      <c r="S131" s="9" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="5" t="n">
@@ -3610,7 +3658,7 @@
         <f>IF(E132&gt;1,(1.732*D132*F132)/1000,(D132*F132)/1000)</f>
         <v/>
       </c>
-      <c r="S132" t="inlineStr">
+      <c r="S132" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3646,6 +3694,7 @@
           <t>1/4"</t>
         </is>
       </c>
+      <c r="S133" s="9" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="5" t="n">
@@ -3672,6 +3721,7 @@
         <f>IF(E134&gt;1,(1.732*D134*F134)/1000,(D134*F134)/1000)</f>
         <v/>
       </c>
+      <c r="S134" s="9" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="5" t="n">
@@ -3689,6 +3739,7 @@
       </c>
       <c r="F135" s="7" t="n"/>
       <c r="G135" s="8" t="n"/>
+      <c r="S135" s="9" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="5" t="n">
@@ -3706,6 +3757,7 @@
       </c>
       <c r="F136" s="7" t="n"/>
       <c r="G136" s="8" t="n"/>
+      <c r="S136" s="9" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="5" t="n">
@@ -3731,6 +3783,7 @@
           <t>3/4"</t>
         </is>
       </c>
+      <c r="S137" s="9" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="5" t="n">
@@ -3746,7 +3799,7 @@
       </c>
       <c r="F138" s="7" t="n"/>
       <c r="G138" s="8" t="n"/>
-      <c r="S138" t="inlineStr">
+      <c r="S138" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3784,7 +3837,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S139" t="inlineStr">
+      <c r="S139" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3804,7 +3857,7 @@
       </c>
       <c r="F140" s="7" t="n"/>
       <c r="G140" s="8" t="n"/>
-      <c r="S140" t="inlineStr">
+      <c r="S140" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #111</t>
         </is>
@@ -3826,6 +3879,7 @@
       </c>
       <c r="F141" s="7" t="n"/>
       <c r="G141" s="8" t="n"/>
+      <c r="S141" s="9" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="5" t="n">
@@ -3841,7 +3895,7 @@
       </c>
       <c r="F142" s="7" t="n"/>
       <c r="G142" s="8" t="n"/>
-      <c r="S142" t="inlineStr">
+      <c r="S142" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3872,6 +3926,7 @@
         <f>IF(E143&gt;1,(1.732*D143*F143)/1000,(D143*F143)/1000)</f>
         <v/>
       </c>
+      <c r="S143" s="9" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="5" t="n">
@@ -3898,7 +3953,7 @@
         <f>IF(E144&gt;1,(1.732*D144*F144)/1000,(D144*F144)/1000)</f>
         <v/>
       </c>
-      <c r="S144" t="inlineStr">
+      <c r="S144" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3920,6 +3975,7 @@
       </c>
       <c r="F145" s="7" t="n"/>
       <c r="G145" s="8" t="n"/>
+      <c r="S145" s="9" t="n"/>
     </row>
     <row r="146">
       <c r="A146" s="5" t="inlineStr">
@@ -3939,6 +3995,7 @@
       </c>
       <c r="F146" s="7" t="n"/>
       <c r="G146" s="8" t="n"/>
+      <c r="S146" s="9" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
@@ -3984,7 +4041,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S148" t="inlineStr">
+      <c r="S148" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #173</t>
         </is>
@@ -4009,7 +4066,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S149" t="inlineStr">
+      <c r="S149" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #168</t>
         </is>
@@ -4034,7 +4091,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S150" t="inlineStr">
+      <c r="S150" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #164</t>
         </is>
@@ -4078,7 +4135,7 @@
       <c r="P151" t="n">
         <v>4500</v>
       </c>
-      <c r="S151" t="inlineStr">
+      <c r="S151" s="9" t="inlineStr">
         <is>
           <t>500LBS AIR COOLED LARGE CUBE STYLE</t>
         </is>
@@ -4100,6 +4157,7 @@
       </c>
       <c r="F152" s="7" t="n"/>
       <c r="G152" s="8" t="n"/>
+      <c r="S152" s="9" t="n"/>
     </row>
     <row r="153">
       <c r="A153" s="5" t="n">
@@ -4120,7 +4178,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S153" t="inlineStr">
+      <c r="S153" s="9" t="inlineStr">
         <is>
           <t>700LBS.</t>
         </is>
@@ -4145,7 +4203,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S154" t="inlineStr">
+      <c r="S154" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4189,7 +4247,7 @@
       <c r="P155" t="n">
         <v>21200</v>
       </c>
-      <c r="S155" t="inlineStr">
+      <c r="S155" s="9" t="inlineStr">
         <is>
           <t>1875LBS. AIR-COOLED CUBE STYLE</t>
         </is>
@@ -4211,6 +4269,7 @@
       </c>
       <c r="F156" s="7" t="n"/>
       <c r="G156" s="8" t="n"/>
+      <c r="S156" s="9" t="n"/>
     </row>
     <row r="157">
       <c r="A157" s="5" t="n">
@@ -4228,6 +4287,7 @@
       </c>
       <c r="F157" s="7" t="n"/>
       <c r="G157" s="8" t="n"/>
+      <c r="S157" s="9" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="5" t="n">
@@ -4248,7 +4308,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S158" t="inlineStr">
+      <c r="S158" s="9" t="inlineStr">
         <is>
           <t>900LBS.</t>
         </is>
@@ -4273,7 +4333,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S159" t="inlineStr">
+      <c r="S159" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4317,7 +4377,7 @@
       <c r="P160" t="n">
         <v>8500</v>
       </c>
-      <c r="S160" t="inlineStr">
+      <c r="S160" s="9" t="inlineStr">
         <is>
           <t>980LBS AIR-COOLED FLAKE STYLE</t>
         </is>
@@ -4342,7 +4402,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S161" t="inlineStr">
+      <c r="S161" s="9" t="inlineStr">
         <is>
           <t>500LBS.</t>
         </is>
@@ -4364,6 +4424,7 @@
       </c>
       <c r="F162" s="7" t="n"/>
       <c r="G162" s="8" t="n"/>
+      <c r="S162" s="9" t="n"/>
     </row>
     <row r="163">
       <c r="A163" s="5" t="n">
@@ -4379,7 +4440,7 @@
       </c>
       <c r="F163" s="7" t="n"/>
       <c r="G163" s="8" t="n"/>
-      <c r="S163" t="inlineStr">
+      <c r="S163" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -4410,6 +4471,7 @@
         <f>IF(E164&gt;1,(1.732*D164*F164)/1000,(D164*F164)/1000)</f>
         <v/>
       </c>
+      <c r="S164" s="9" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="5" t="n">
@@ -4430,7 +4492,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S165" t="inlineStr">
+      <c r="S165" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4452,6 +4514,7 @@
       </c>
       <c r="F166" s="7" t="n"/>
       <c r="G166" s="8" t="n"/>
+      <c r="S166" s="9" t="n"/>
     </row>
     <row r="167">
       <c r="A167" s="5" t="n">
@@ -4469,6 +4532,7 @@
       </c>
       <c r="F167" s="7" t="n"/>
       <c r="G167" s="8" t="n"/>
+      <c r="S167" s="9" t="n"/>
     </row>
     <row r="168">
       <c r="A168" s="5" t="n">
@@ -4500,7 +4564,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S168" t="inlineStr">
+      <c r="S168" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -4541,7 +4605,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S169" t="inlineStr">
+      <c r="S169" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER FOR ITEM #177</t>
         </is>
@@ -4561,7 +4625,7 @@
       </c>
       <c r="F170" s="7" t="n"/>
       <c r="G170" s="8" t="n"/>
-      <c r="S170" t="inlineStr">
+      <c r="S170" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -4592,6 +4656,7 @@
         <f>IF(E171&gt;1,(1.732*D171*F171)/1000,(D171*F171)/1000)</f>
         <v/>
       </c>
+      <c r="S171" s="9" t="n"/>
     </row>
     <row r="172">
       <c r="A172" s="5" t="n">
@@ -4609,6 +4674,7 @@
       </c>
       <c r="F172" s="7" t="n"/>
       <c r="G172" s="8" t="n"/>
+      <c r="S172" s="9" t="n"/>
     </row>
     <row r="173">
       <c r="A173" s="5" t="n">
@@ -4640,7 +4706,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S173" t="inlineStr">
+      <c r="S173" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -4681,7 +4747,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S174" t="inlineStr">
+      <c r="S174" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER FOR ITEM #184</t>
         </is>
@@ -4701,7 +4767,7 @@
       </c>
       <c r="F175" s="7" t="n"/>
       <c r="G175" s="8" t="n"/>
-      <c r="S175" t="inlineStr">
+      <c r="S175" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -4723,6 +4789,7 @@
       </c>
       <c r="F176" s="7" t="n"/>
       <c r="G176" s="8" t="n"/>
+      <c r="S176" s="9" t="n"/>
     </row>
     <row r="177">
       <c r="A177" s="5" t="inlineStr">
@@ -4742,6 +4809,7 @@
       </c>
       <c r="F177" s="7" t="n"/>
       <c r="G177" s="8" t="n"/>
+      <c r="S177" s="9" t="n"/>
     </row>
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
@@ -4782,7 +4850,7 @@
       </c>
       <c r="F179" s="7" t="n"/>
       <c r="G179" s="8" t="n"/>
-      <c r="S179" t="inlineStr">
+      <c r="S179" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4813,7 +4881,7 @@
         <f>IF(E180&gt;1,(1.732*D180*F180)/1000,(D180*F180)/1000)</f>
         <v/>
       </c>
-      <c r="S180" t="inlineStr">
+      <c r="S180" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #251</t>
         </is>
@@ -4844,7 +4912,7 @@
         <f>IF(E181&gt;1,(1.732*D181*F181)/1000,(D181*F181)/1000)</f>
         <v/>
       </c>
-      <c r="S181" t="inlineStr">
+      <c r="S181" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #251</t>
         </is>
@@ -4893,7 +4961,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S182" t="inlineStr">
+      <c r="S182" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4915,6 +4983,7 @@
       </c>
       <c r="F183" s="7" t="n"/>
       <c r="G183" s="8" t="n"/>
+      <c r="S183" s="9" t="n"/>
     </row>
     <row r="184">
       <c r="A184" s="5" t="n">
@@ -4930,7 +4999,7 @@
       </c>
       <c r="F184" s="7" t="n"/>
       <c r="G184" s="8" t="n"/>
-      <c r="S184" t="inlineStr">
+      <c r="S184" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4966,7 +5035,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S185" t="inlineStr">
+      <c r="S185" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM #204</t>
         </is>
@@ -5002,7 +5071,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S186" t="inlineStr">
+      <c r="S186" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM #204</t>
         </is>
@@ -5024,6 +5093,7 @@
       </c>
       <c r="F187" s="7" t="n"/>
       <c r="G187" s="8" t="n"/>
+      <c r="S187" s="9" t="n"/>
     </row>
     <row r="188">
       <c r="A188" s="5" t="n">
@@ -5041,6 +5111,7 @@
       </c>
       <c r="F188" s="7" t="n"/>
       <c r="G188" s="8" t="n"/>
+      <c r="S188" s="9" t="n"/>
     </row>
     <row r="189">
       <c r="A189" s="5" t="n">
@@ -5056,7 +5127,7 @@
       </c>
       <c r="F189" s="7" t="n"/>
       <c r="G189" s="8" t="n"/>
-      <c r="S189" t="inlineStr">
+      <c r="S189" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5092,7 +5163,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S190" t="inlineStr">
+      <c r="S190" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM #204</t>
         </is>
@@ -5130,7 +5201,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S191" t="inlineStr">
+      <c r="S191" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #204</t>
         </is>
@@ -5150,7 +5221,7 @@
       </c>
       <c r="F192" s="7" t="n"/>
       <c r="G192" s="8" t="n"/>
-      <c r="S192" t="inlineStr">
+      <c r="S192" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #204</t>
         </is>
@@ -5172,6 +5243,7 @@
       </c>
       <c r="F193" s="7" t="n"/>
       <c r="G193" s="8" t="n"/>
+      <c r="S193" s="9" t="n"/>
     </row>
     <row r="194">
       <c r="A194" s="5" t="n">
@@ -5187,7 +5259,7 @@
       </c>
       <c r="F194" s="7" t="n"/>
       <c r="G194" s="8" t="n"/>
-      <c r="S194" t="inlineStr">
+      <c r="S194" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5218,7 +5290,7 @@
         <f>IF(E195&gt;1,(1.732*D195*F195)/1000,(D195*F195)/1000)</f>
         <v/>
       </c>
-      <c r="S195" t="inlineStr">
+      <c r="S195" s="9" t="inlineStr">
         <is>
           <t>2 RING</t>
         </is>
@@ -5249,7 +5321,7 @@
         <f>IF(E196&gt;1,(1.732*D196*F196)/1000,(D196*F196)/1000)</f>
         <v/>
       </c>
-      <c r="S196" t="inlineStr">
+      <c r="S196" s="9" t="inlineStr">
         <is>
           <t>1 RING</t>
         </is>
@@ -5271,6 +5343,7 @@
       </c>
       <c r="F197" s="7" t="n"/>
       <c r="G197" s="8" t="n"/>
+      <c r="S197" s="9" t="n"/>
     </row>
     <row r="198">
       <c r="A198" s="5" t="n">
@@ -5288,6 +5361,7 @@
       </c>
       <c r="F198" s="7" t="n"/>
       <c r="G198" s="8" t="n"/>
+      <c r="S198" s="9" t="n"/>
     </row>
     <row r="199">
       <c r="A199" s="5" t="n">
@@ -5319,7 +5393,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S199" t="inlineStr">
+      <c r="S199" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS PART OF ITEM #204</t>
         </is>
@@ -5360,6 +5434,7 @@
           <t>1 1/2"</t>
         </is>
       </c>
+      <c r="S200" s="9" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="5" t="n">
@@ -5375,7 +5450,7 @@
       </c>
       <c r="F201" s="7" t="n"/>
       <c r="G201" s="8" t="n"/>
-      <c r="S201" t="inlineStr">
+      <c r="S201" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5411,7 +5486,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S202" t="inlineStr">
+      <c r="S202" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM #204</t>
         </is>
@@ -5433,6 +5508,7 @@
       </c>
       <c r="F203" s="7" t="n"/>
       <c r="G203" s="8" t="n"/>
+      <c r="S203" s="9" t="n"/>
     </row>
     <row r="204">
       <c r="A204" s="5" t="n">
@@ -5448,7 +5524,7 @@
       </c>
       <c r="F204" s="7" t="n"/>
       <c r="G204" s="8" t="n"/>
-      <c r="S204" t="inlineStr">
+      <c r="S204" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #204</t>
         </is>
@@ -5468,7 +5544,7 @@
       </c>
       <c r="F205" s="7" t="n"/>
       <c r="G205" s="8" t="n"/>
-      <c r="S205" t="inlineStr">
+      <c r="S205" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5506,7 +5582,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S206" t="inlineStr">
+      <c r="S206" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #204</t>
         </is>
@@ -5528,6 +5604,7 @@
       </c>
       <c r="F207" s="7" t="n"/>
       <c r="G207" s="8" t="n"/>
+      <c r="S207" s="9" t="n"/>
     </row>
     <row r="208">
       <c r="A208" s="5" t="n">
@@ -5545,6 +5622,7 @@
       </c>
       <c r="F208" s="7" t="n"/>
       <c r="G208" s="8" t="n"/>
+      <c r="S208" s="9" t="n"/>
     </row>
     <row r="209">
       <c r="A209" s="5" t="n">
@@ -5560,7 +5638,7 @@
       </c>
       <c r="F209" s="7" t="n"/>
       <c r="G209" s="8" t="n"/>
-      <c r="S209" t="inlineStr">
+      <c r="S209" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #204</t>
         </is>
@@ -5580,7 +5658,7 @@
       </c>
       <c r="F210" s="7" t="n"/>
       <c r="G210" s="8" t="n"/>
-      <c r="S210" t="inlineStr">
+      <c r="S210" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5611,6 +5689,7 @@
         <f>IF(E211&gt;1,(1.732*D211*F211)/1000,(D211*F211)/1000)</f>
         <v/>
       </c>
+      <c r="S211" s="9" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="5" t="n">
@@ -5642,7 +5721,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S212" t="inlineStr">
+      <c r="S212" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #204</t>
         </is>
@@ -5664,6 +5743,7 @@
       </c>
       <c r="F213" s="7" t="n"/>
       <c r="G213" s="8" t="n"/>
+      <c r="S213" s="9" t="n"/>
     </row>
     <row r="214">
       <c r="A214" s="5" t="n">
@@ -5690,6 +5770,7 @@
         <f>IF(E214&gt;1,(1.732*D214*F214)/1000,(D214*F214)/1000)</f>
         <v/>
       </c>
+      <c r="S214" s="9" t="n"/>
     </row>
     <row r="215">
       <c r="A215" s="5" t="n">
@@ -5716,6 +5797,7 @@
         <f>IF(E215&gt;1,(1.732*D215*F215)/1000,(D215*F215)/1000)</f>
         <v/>
       </c>
+      <c r="S215" s="9" t="n"/>
     </row>
     <row r="216">
       <c r="A216" s="5" t="n">
@@ -5733,6 +5815,7 @@
       </c>
       <c r="F216" s="7" t="n"/>
       <c r="G216" s="8" t="n"/>
+      <c r="S216" s="9" t="n"/>
     </row>
     <row r="217">
       <c r="A217" s="5" t="n">
@@ -5750,6 +5833,7 @@
       </c>
       <c r="F217" s="7" t="n"/>
       <c r="G217" s="8" t="n"/>
+      <c r="S217" s="9" t="n"/>
     </row>
     <row r="218">
       <c r="A218" s="5" t="inlineStr">
@@ -5769,6 +5853,7 @@
       </c>
       <c r="F218" s="7" t="n"/>
       <c r="G218" s="8" t="n"/>
+      <c r="S218" s="9" t="n"/>
     </row>
     <row r="219">
       <c r="A219" s="5" t="n">
@@ -5801,7 +5886,7 @@
       <c r="O219" t="n">
         <v>1586</v>
       </c>
-      <c r="S219" t="inlineStr">
+      <c r="S219" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -5832,7 +5917,7 @@
         <f>IF(E220&gt;1,(1.732*D220*F220)/1000,(D220*F220)/1000)</f>
         <v/>
       </c>
-      <c r="S220" t="inlineStr">
+      <c r="S220" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -5852,6 +5937,7 @@
       </c>
       <c r="F221" s="7" t="n"/>
       <c r="G221" s="8" t="n"/>
+      <c r="S221" s="9" t="n"/>
     </row>
     <row r="222">
       <c r="A222" s="5" t="inlineStr">
@@ -5872,7 +5958,7 @@
       <c r="M222" t="n">
         <v>210000</v>
       </c>
-      <c r="S222" t="inlineStr">
+      <c r="S222" s="9" t="inlineStr">
         <is>
           <t>PART OF ITEM #252</t>
         </is>
@@ -5908,7 +5994,7 @@
       <c r="M223" t="n">
         <v>40000</v>
       </c>
-      <c r="S223" t="inlineStr">
+      <c r="S223" s="9" t="inlineStr">
         <is>
           <t>PART OF ITEM #252</t>
         </is>
@@ -5933,7 +6019,7 @@
       <c r="M224" t="n">
         <v>120000</v>
       </c>
-      <c r="S224" t="inlineStr">
+      <c r="S224" s="9" t="inlineStr">
         <is>
           <t>PART OF ITEM #252</t>
         </is>
@@ -5966,7 +6052,7 @@
         <f>IF(E225&gt;1,(1.732*D225*F225)/1000,(D225*F225)/1000)</f>
         <v/>
       </c>
-      <c r="S225" t="inlineStr">
+      <c r="S225" s="9" t="inlineStr">
         <is>
           <t>PART OF ITEM #252</t>
         </is>
@@ -5999,7 +6085,7 @@
         <f>IF(E226&gt;1,(1.732*D226*F226)/1000,(D226*F226)/1000)</f>
         <v/>
       </c>
-      <c r="S226" t="inlineStr">
+      <c r="S226" s="9" t="inlineStr">
         <is>
           <t>PART OF ITEM #252</t>
         </is>
@@ -6024,7 +6110,7 @@
       <c r="M227" t="n">
         <v>114000</v>
       </c>
-      <c r="S227" t="inlineStr">
+      <c r="S227" s="9" t="inlineStr">
         <is>
           <t>PART OF ITEM #252</t>
         </is>
@@ -6049,7 +6135,7 @@
       <c r="M228" t="n">
         <v>140000</v>
       </c>
-      <c r="S228" t="inlineStr">
+      <c r="S228" s="9" t="inlineStr">
         <is>
           <t>PART OF ITEM #252</t>
         </is>
@@ -6085,7 +6171,7 @@
       <c r="M229" t="n">
         <v>40000</v>
       </c>
-      <c r="S229" t="inlineStr">
+      <c r="S229" s="9" t="inlineStr">
         <is>
           <t>PART OF ITEM #252</t>
         </is>
@@ -6110,7 +6196,7 @@
       <c r="M230" t="n">
         <v>20000</v>
       </c>
-      <c r="S230" t="inlineStr">
+      <c r="S230" s="9" t="inlineStr">
         <is>
           <t>PART OF ITEM #252</t>
         </is>
@@ -6130,7 +6216,7 @@
       </c>
       <c r="F231" s="7" t="n"/>
       <c r="G231" s="8" t="n"/>
-      <c r="S231" t="inlineStr">
+      <c r="S231" s="9" t="inlineStr">
         <is>
           <t>ELECTRIC</t>
         </is>
@@ -6174,6 +6260,7 @@
       <c r="M232" t="n">
         <v>83500</v>
       </c>
+      <c r="S232" s="9" t="n"/>
     </row>
     <row r="233">
       <c r="A233" s="5" t="inlineStr">
@@ -6193,6 +6280,7 @@
       </c>
       <c r="F233" s="7" t="n"/>
       <c r="G233" s="8" t="n"/>
+      <c r="S233" s="9" t="n"/>
     </row>
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
@@ -6237,6 +6325,7 @@
       </c>
       <c r="F235" s="7" t="n"/>
       <c r="G235" s="8" t="n"/>
+      <c r="S235" s="9" t="n"/>
     </row>
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
@@ -6288,7 +6377,7 @@
         <f>IF(E237&gt;1,(1.732*D237*F237)/1000,(D237*F237)/1000)</f>
         <v/>
       </c>
-      <c r="S237" t="inlineStr">
+      <c r="S237" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR WITH DRINK RAIL</t>
         </is>
@@ -6313,6 +6402,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S238" s="9" t="n"/>
     </row>
     <row r="239">
       <c r="A239" s="5" t="n">
@@ -6357,7 +6447,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S239" t="inlineStr">
+      <c r="S239" s="9" t="inlineStr">
         <is>
           <t>180°</t>
         </is>
@@ -6382,6 +6472,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S240" s="9" t="n"/>
     </row>
     <row r="241">
       <c r="A241" s="5" t="n">
@@ -6399,6 +6490,7 @@
       </c>
       <c r="F241" s="7" t="n"/>
       <c r="G241" s="8" t="n"/>
+      <c r="S241" s="9" t="n"/>
     </row>
     <row r="242">
       <c r="A242" s="5" t="n">
@@ -6432,7 +6524,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S242" t="inlineStr">
+      <c r="S242" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -6452,7 +6544,7 @@
       </c>
       <c r="F243" s="7" t="n"/>
       <c r="G243" s="8" t="n"/>
-      <c r="S243" t="inlineStr">
+      <c r="S243" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -6477,6 +6569,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S244" s="9" t="n"/>
     </row>
     <row r="245">
       <c r="A245" s="5" t="n">
@@ -6494,6 +6587,7 @@
       </c>
       <c r="F245" s="7" t="n"/>
       <c r="G245" s="8" t="n"/>
+      <c r="S245" s="9" t="n"/>
     </row>
     <row r="246">
       <c r="A246" s="5" t="n">
@@ -6511,6 +6605,7 @@
       </c>
       <c r="F246" s="7" t="n"/>
       <c r="G246" s="8" t="n"/>
+      <c r="S246" s="9" t="n"/>
     </row>
     <row r="247">
       <c r="A247" s="5" t="n">
@@ -6526,7 +6621,7 @@
       </c>
       <c r="F247" s="7" t="n"/>
       <c r="G247" s="8" t="n"/>
-      <c r="S247" t="inlineStr">
+      <c r="S247" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -6551,6 +6646,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S248" s="9" t="n"/>
     </row>
     <row r="249">
       <c r="A249" s="5" t="n">
@@ -6566,6 +6662,7 @@
       </c>
       <c r="F249" s="7" t="n"/>
       <c r="G249" s="8" t="n"/>
+      <c r="S249" s="9" t="n"/>
     </row>
     <row r="250">
       <c r="A250" s="5" t="n">
@@ -6586,6 +6683,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S250" s="9" t="n"/>
     </row>
     <row r="251">
       <c r="A251" s="5" t="n">
@@ -6603,6 +6701,7 @@
       </c>
       <c r="F251" s="7" t="n"/>
       <c r="G251" s="8" t="n"/>
+      <c r="S251" s="9" t="n"/>
     </row>
     <row r="252">
       <c r="A252" s="5" t="n">
@@ -6636,7 +6735,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S252" t="inlineStr">
+      <c r="S252" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -6661,6 +6760,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S253" s="9" t="n"/>
     </row>
     <row r="254">
       <c r="A254" s="5" t="n">
@@ -6687,6 +6787,7 @@
         <f>IF(E254&gt;1,(1.732*D254*F254)/1000,(D254*F254)/1000)</f>
         <v/>
       </c>
+      <c r="S254" s="9" t="n"/>
     </row>
     <row r="255">
       <c r="A255" s="5" t="n">
@@ -6704,6 +6805,7 @@
       </c>
       <c r="F255" s="7" t="n"/>
       <c r="G255" s="8" t="n"/>
+      <c r="S255" s="9" t="n"/>
     </row>
     <row r="256">
       <c r="A256" s="5" t="n">
@@ -6721,6 +6823,7 @@
       </c>
       <c r="F256" s="7" t="n"/>
       <c r="G256" s="8" t="n"/>
+      <c r="S256" s="9" t="n"/>
     </row>
     <row r="257">
       <c r="A257" s="5" t="n">
@@ -6736,7 +6839,7 @@
       </c>
       <c r="F257" s="7" t="n"/>
       <c r="G257" s="8" t="n"/>
-      <c r="S257" t="inlineStr">
+      <c r="S257" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -6761,6 +6864,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S258" s="9" t="n"/>
     </row>
     <row r="259">
       <c r="A259" s="5" t="n">
@@ -6776,6 +6880,7 @@
       </c>
       <c r="F259" s="7" t="n"/>
       <c r="G259" s="8" t="n"/>
+      <c r="S259" s="9" t="n"/>
     </row>
     <row r="260">
       <c r="A260" s="5" t="n">
@@ -6796,6 +6901,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S260" s="9" t="n"/>
     </row>
     <row r="261">
       <c r="A261" s="5" t="n">
@@ -6813,6 +6919,7 @@
       </c>
       <c r="F261" s="7" t="n"/>
       <c r="G261" s="8" t="n"/>
+      <c r="S261" s="9" t="n"/>
     </row>
     <row r="262">
       <c r="A262" s="5" t="n">
@@ -6846,7 +6953,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S262" t="inlineStr">
+      <c r="S262" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -6871,6 +6978,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S263" s="9" t="n"/>
     </row>
     <row r="264">
       <c r="A264" s="5" t="n">
@@ -6891,6 +6999,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S264" s="9" t="n"/>
     </row>
     <row r="265">
       <c r="A265" s="5" t="n">
@@ -6908,6 +7017,7 @@
       </c>
       <c r="F265" s="7" t="n"/>
       <c r="G265" s="8" t="n"/>
+      <c r="S265" s="9" t="n"/>
     </row>
     <row r="266">
       <c r="A266" s="5" t="n">
@@ -6925,6 +7035,7 @@
       </c>
       <c r="F266" s="7" t="n"/>
       <c r="G266" s="8" t="n"/>
+      <c r="S266" s="9" t="n"/>
     </row>
     <row r="267">
       <c r="A267" s="5" t="n">
@@ -6945,6 +7056,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S267" s="9" t="n"/>
     </row>
     <row r="268">
       <c r="A268" s="5" t="n">
@@ -6971,6 +7083,7 @@
         <f>IF(E268&gt;1,(1.732*D268*F268)/1000,(D268*F268)/1000)</f>
         <v/>
       </c>
+      <c r="S268" s="9" t="n"/>
     </row>
     <row r="269">
       <c r="A269" s="5" t="n">
@@ -6988,6 +7101,7 @@
       </c>
       <c r="F269" s="7" t="n"/>
       <c r="G269" s="8" t="n"/>
+      <c r="S269" s="9" t="n"/>
     </row>
     <row r="270">
       <c r="A270" s="5" t="n">
@@ -7005,6 +7119,7 @@
       </c>
       <c r="F270" s="7" t="n"/>
       <c r="G270" s="8" t="n"/>
+      <c r="S270" s="9" t="n"/>
     </row>
     <row r="271">
       <c r="A271" s="5" t="inlineStr">
@@ -7024,6 +7139,7 @@
       </c>
       <c r="F271" s="7" t="n"/>
       <c r="G271" s="8" t="n"/>
+      <c r="S271" s="9" t="n"/>
     </row>
     <row r="272">
       <c r="A272" s="5" t="n">
@@ -7050,7 +7166,7 @@
         <f>IF(E272&gt;1,(1.732*D272*F272)/1000,(D272*F272)/1000)</f>
         <v/>
       </c>
-      <c r="S272" t="inlineStr">
+      <c r="S272" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -7081,7 +7197,7 @@
         <f>IF(E273&gt;1,(1.732*D273*F273)/1000,(D273*F273)/1000)</f>
         <v/>
       </c>
-      <c r="S273" t="inlineStr">
+      <c r="S273" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7112,7 +7228,7 @@
         <f>IF(E274&gt;1,(1.732*D274*F274)/1000,(D274*F274)/1000)</f>
         <v/>
       </c>
-      <c r="S274" t="inlineStr">
+      <c r="S274" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -7143,7 +7259,7 @@
         <f>IF(E275&gt;1,(1.732*D275*F275)/1000,(D275*F275)/1000)</f>
         <v/>
       </c>
-      <c r="S275" t="inlineStr">
+      <c r="S275" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -7165,6 +7281,7 @@
       </c>
       <c r="F276" s="7" t="n"/>
       <c r="G276" s="8" t="n"/>
+      <c r="S276" s="9" t="n"/>
     </row>
     <row r="277">
       <c r="A277" s="5" t="n">
@@ -7191,7 +7308,7 @@
         <f>IF(E277&gt;1,(1.732*D277*F277)/1000,(D277*F277)/1000)</f>
         <v/>
       </c>
-      <c r="S277" t="inlineStr">
+      <c r="S277" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7216,6 +7333,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S278" s="9" t="n"/>
     </row>
     <row r="279">
       <c r="A279" s="5" t="n">
@@ -7231,7 +7349,7 @@
       </c>
       <c r="F279" s="7" t="n"/>
       <c r="G279" s="8" t="n"/>
-      <c r="S279" t="inlineStr">
+      <c r="S279" s="9" t="inlineStr">
         <is>
           <t>2 TAP</t>
         </is>
@@ -7253,6 +7371,7 @@
       </c>
       <c r="F280" s="7" t="n"/>
       <c r="G280" s="8" t="n"/>
+      <c r="S280" s="9" t="n"/>
     </row>
     <row r="281">
       <c r="A281" s="5" t="n">
@@ -7270,6 +7389,7 @@
       </c>
       <c r="F281" s="7" t="n"/>
       <c r="G281" s="8" t="n"/>
+      <c r="S281" s="9" t="n"/>
     </row>
     <row r="282">
       <c r="A282" s="5" t="n">
@@ -7296,7 +7416,7 @@
         <f>IF(E282&gt;1,(1.732*D282*F282)/1000,(D282*F282)/1000)</f>
         <v/>
       </c>
-      <c r="S282" t="inlineStr">
+      <c r="S282" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7327,7 +7447,7 @@
         <f>IF(E283&gt;1,(1.732*D283*F283)/1000,(D283*F283)/1000)</f>
         <v/>
       </c>
-      <c r="S283" t="inlineStr">
+      <c r="S283" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -7358,7 +7478,7 @@
         <f>IF(E284&gt;1,(1.732*D284*F284)/1000,(D284*F284)/1000)</f>
         <v/>
       </c>
-      <c r="S284" t="inlineStr">
+      <c r="S284" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -7389,7 +7509,7 @@
         <f>IF(E285&gt;1,(1.732*D285*F285)/1000,(D285*F285)/1000)</f>
         <v/>
       </c>
-      <c r="S285" t="inlineStr">
+      <c r="S285" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -7413,6 +7533,7 @@
       </c>
       <c r="F286" s="7" t="n"/>
       <c r="G286" s="8" t="n"/>
+      <c r="S286" s="9" t="n"/>
     </row>
     <row r="287">
       <c r="A287" s="3" t="inlineStr">
@@ -7464,7 +7585,7 @@
         <f>IF(E288&gt;1,(1.732*D288*F288)/1000,(D288*F288)/1000)</f>
         <v/>
       </c>
-      <c r="S288" t="inlineStr">
+      <c r="S288" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -7484,7 +7605,7 @@
       </c>
       <c r="F289" s="7" t="n"/>
       <c r="G289" s="8" t="n"/>
-      <c r="S289" t="inlineStr">
+      <c r="S289" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7504,7 +7625,7 @@
       </c>
       <c r="F290" s="7" t="n"/>
       <c r="G290" s="8" t="n"/>
-      <c r="S290" t="inlineStr">
+      <c r="S290" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -7535,7 +7656,7 @@
         <f>IF(E291&gt;1,(1.732*D291*F291)/1000,(D291*F291)/1000)</f>
         <v/>
       </c>
-      <c r="S291" t="inlineStr">
+      <c r="S291" s="9" t="inlineStr">
         <is>
           <t>BY OWNER</t>
         </is>
@@ -7557,6 +7678,7 @@
       </c>
       <c r="F292" s="7" t="n"/>
       <c r="G292" s="8" t="n"/>
+      <c r="S292" s="9" t="n"/>
     </row>
     <row r="293">
       <c r="A293" s="5" t="n">
@@ -7572,7 +7694,7 @@
       </c>
       <c r="F293" s="7" t="n"/>
       <c r="G293" s="8" t="n"/>
-      <c r="S293" t="inlineStr">
+      <c r="S293" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7603,6 +7725,7 @@
         <f>IF(E294&gt;1,(1.732*D294*F294)/1000,(D294*F294)/1000)</f>
         <v/>
       </c>
+      <c r="S294" s="9" t="n"/>
     </row>
     <row r="295">
       <c r="A295" s="5" t="n">
@@ -7618,7 +7741,7 @@
       </c>
       <c r="F295" s="7" t="n"/>
       <c r="G295" s="8" t="n"/>
-      <c r="S295" t="inlineStr">
+      <c r="S295" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7640,6 +7763,7 @@
       </c>
       <c r="F296" s="7" t="n"/>
       <c r="G296" s="8" t="n"/>
+      <c r="S296" s="9" t="n"/>
     </row>
     <row r="297">
       <c r="A297" s="5" t="n">
@@ -7657,6 +7781,7 @@
       </c>
       <c r="F297" s="7" t="n"/>
       <c r="G297" s="8" t="n"/>
+      <c r="S297" s="9" t="n"/>
     </row>
     <row r="298">
       <c r="A298" s="5" t="n">
@@ -7690,7 +7815,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S298" t="inlineStr">
+      <c r="S298" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -7710,7 +7835,7 @@
       </c>
       <c r="F299" s="7" t="n"/>
       <c r="G299" s="8" t="n"/>
-      <c r="S299" t="inlineStr">
+      <c r="S299" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -7741,7 +7866,7 @@
         <f>IF(E300&gt;1,(1.732*D300*F300)/1000,(D300*F300)/1000)</f>
         <v/>
       </c>
-      <c r="S300" t="inlineStr">
+      <c r="S300" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7761,7 +7886,7 @@
       </c>
       <c r="F301" s="7" t="n"/>
       <c r="G301" s="8" t="n"/>
-      <c r="S301" t="inlineStr">
+      <c r="S301" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7783,6 +7908,7 @@
       </c>
       <c r="F302" s="7" t="n"/>
       <c r="G302" s="8" t="n"/>
+      <c r="S302" s="9" t="n"/>
     </row>
     <row r="303">
       <c r="A303" s="5" t="n">
@@ -7809,7 +7935,7 @@
         <f>IF(E303&gt;1,(1.732*D303*F303)/1000,(D303*F303)/1000)</f>
         <v/>
       </c>
-      <c r="S303" t="inlineStr">
+      <c r="S303" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -7840,7 +7966,7 @@
         <f>IF(E304&gt;1,(1.732*D304*F304)/1000,(D304*F304)/1000)</f>
         <v/>
       </c>
-      <c r="S304" t="inlineStr">
+      <c r="S304" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7871,7 +7997,7 @@
         <f>IF(E305&gt;1,(1.732*D305*F305)/1000,(D305*F305)/1000)</f>
         <v/>
       </c>
-      <c r="S305" t="inlineStr">
+      <c r="S305" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7893,6 +8019,7 @@
       </c>
       <c r="F306" s="7" t="n"/>
       <c r="G306" s="8" t="n"/>
+      <c r="S306" s="9" t="n"/>
     </row>
     <row r="307">
       <c r="A307" s="5" t="n">
@@ -7910,6 +8037,7 @@
       </c>
       <c r="F307" s="7" t="n"/>
       <c r="G307" s="8" t="n"/>
+      <c r="S307" s="9" t="n"/>
     </row>
     <row r="308">
       <c r="A308" s="5" t="n">
@@ -7936,6 +8064,7 @@
         <f>IF(E308&gt;1,(1.732*D308*F308)/1000,(D308*F308)/1000)</f>
         <v/>
       </c>
+      <c r="S308" s="9" t="n"/>
     </row>
     <row r="309">
       <c r="A309" s="5" t="n">
@@ -7962,7 +8091,7 @@
         <f>IF(E309&gt;1,(1.732*D309*F309)/1000,(D309*F309)/1000)</f>
         <v/>
       </c>
-      <c r="S309" t="inlineStr">
+      <c r="S309" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7993,7 +8122,7 @@
         <f>IF(E310&gt;1,(1.732*D310*F310)/1000,(D310*F310)/1000)</f>
         <v/>
       </c>
-      <c r="S310" t="inlineStr">
+      <c r="S310" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8023,6 +8152,7 @@
           <t>3/4"</t>
         </is>
       </c>
+      <c r="S311" s="9" t="n"/>
     </row>
     <row r="312">
       <c r="A312" s="5" t="n">
@@ -8046,7 +8176,7 @@
       <c r="J312" t="n">
         <v>10</v>
       </c>
-      <c r="S312" t="inlineStr">
+      <c r="S312" s="9" t="inlineStr">
         <is>
           <t>UNDER COUNTER FOR ITEM #526</t>
         </is>
@@ -8082,6 +8212,7 @@
           <t>1/4"</t>
         </is>
       </c>
+      <c r="S313" s="9" t="n"/>
     </row>
     <row r="314">
       <c r="A314" s="5" t="n">
@@ -8116,6 +8247,7 @@
       <c r="J314" t="n">
         <v>10</v>
       </c>
+      <c r="S314" s="9" t="n"/>
     </row>
     <row r="315">
       <c r="A315" s="5" t="n">
@@ -8131,7 +8263,7 @@
       </c>
       <c r="F315" s="7" t="n"/>
       <c r="G315" s="8" t="n"/>
-      <c r="S315" t="inlineStr">
+      <c r="S315" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #523 #527 #534</t>
         </is>
@@ -8153,6 +8285,7 @@
       </c>
       <c r="F316" s="7" t="n"/>
       <c r="G316" s="8" t="n"/>
+      <c r="S316" s="9" t="n"/>
     </row>
     <row r="317">
       <c r="A317" s="5" t="n">
@@ -8170,6 +8303,7 @@
       </c>
       <c r="F317" s="7" t="n"/>
       <c r="G317" s="8" t="n"/>
+      <c r="S317" s="9" t="n"/>
     </row>
     <row r="318">
       <c r="A318" s="5" t="n">
@@ -8185,7 +8319,7 @@
       </c>
       <c r="F318" s="7" t="n"/>
       <c r="G318" s="8" t="n"/>
-      <c r="S318" t="inlineStr">
+      <c r="S318" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -8216,6 +8350,7 @@
         <f>IF(E319&gt;1,(1.732*D319*F319)/1000,(D319*F319)/1000)</f>
         <v/>
       </c>
+      <c r="S319" s="9" t="n"/>
     </row>
     <row r="320">
       <c r="A320" s="5" t="n">
@@ -8242,6 +8377,7 @@
         <f>IF(E320&gt;1,(1.732*D320*F320)/1000,(D320*F320)/1000)</f>
         <v/>
       </c>
+      <c r="S320" s="9" t="n"/>
     </row>
     <row r="321">
       <c r="A321" s="5" t="n">
@@ -8278,6 +8414,7 @@
           <t>1-1/4"</t>
         </is>
       </c>
+      <c r="S321" s="9" t="n"/>
     </row>
     <row r="322">
       <c r="A322" s="5" t="n">
@@ -8295,6 +8432,7 @@
       </c>
       <c r="F322" s="7" t="n"/>
       <c r="G322" s="8" t="n"/>
+      <c r="S322" s="9" t="n"/>
     </row>
     <row r="323">
       <c r="A323" s="5" t="n">
@@ -8310,7 +8448,7 @@
       </c>
       <c r="F323" s="7" t="n"/>
       <c r="G323" s="8" t="n"/>
-      <c r="S323" t="inlineStr">
+      <c r="S323" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8332,6 +8470,7 @@
       </c>
       <c r="F324" s="7" t="n"/>
       <c r="G324" s="8" t="n"/>
+      <c r="S324" s="9" t="n"/>
     </row>
     <row r="325">
       <c r="A325" s="5" t="n">
@@ -8349,6 +8488,7 @@
       </c>
       <c r="F325" s="7" t="n"/>
       <c r="G325" s="8" t="n"/>
+      <c r="S325" s="9" t="n"/>
     </row>
     <row r="326">
       <c r="A326" s="5" t="n">
@@ -8366,6 +8506,7 @@
       </c>
       <c r="F326" s="7" t="n"/>
       <c r="G326" s="8" t="n"/>
+      <c r="S326" s="9" t="n"/>
     </row>
     <row r="327">
       <c r="A327" s="5" t="n">
@@ -8383,6 +8524,7 @@
       </c>
       <c r="F327" s="7" t="n"/>
       <c r="G327" s="8" t="n"/>
+      <c r="S327" s="9" t="n"/>
     </row>
     <row r="328">
       <c r="A328" s="3" t="inlineStr">
@@ -8441,7 +8583,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S329" t="inlineStr">
+      <c r="S329" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -8461,7 +8603,7 @@
       </c>
       <c r="F330" s="7" t="n"/>
       <c r="G330" s="8" t="n"/>
-      <c r="S330" t="inlineStr">
+      <c r="S330" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -8502,7 +8644,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S331" t="inlineStr">
+      <c r="S331" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8533,7 +8675,7 @@
         <f>IF(E332&gt;1,(1.732*D332*F332)/1000,(D332*F332)/1000)</f>
         <v/>
       </c>
-      <c r="S332" t="inlineStr">
+      <c r="S332" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8555,6 +8697,7 @@
       </c>
       <c r="F333" s="7" t="n"/>
       <c r="G333" s="8" t="n"/>
+      <c r="S333" s="9" t="n"/>
     </row>
     <row r="334">
       <c r="A334" s="5" t="n">
@@ -8570,7 +8713,7 @@
       </c>
       <c r="F334" s="7" t="n"/>
       <c r="G334" s="8" t="n"/>
-      <c r="S334" t="inlineStr">
+      <c r="S334" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8606,7 +8749,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S335" t="inlineStr">
+      <c r="S335" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM #544</t>
         </is>
@@ -8637,7 +8780,7 @@
         <f>IF(E336&gt;1,(1.732*D336*F336)/1000,(D336*F336)/1000)</f>
         <v/>
       </c>
-      <c r="S336" t="inlineStr">
+      <c r="S336" s="9" t="inlineStr">
         <is>
           <t>2 RING</t>
         </is>
@@ -8659,6 +8802,7 @@
       </c>
       <c r="F337" s="7" t="n"/>
       <c r="G337" s="8" t="n"/>
+      <c r="S337" s="9" t="n"/>
     </row>
     <row r="338">
       <c r="A338" s="5" t="n">
@@ -8676,6 +8820,7 @@
       </c>
       <c r="F338" s="7" t="n"/>
       <c r="G338" s="8" t="n"/>
+      <c r="S338" s="9" t="n"/>
     </row>
     <row r="339">
       <c r="A339" s="5" t="n">
@@ -8702,6 +8847,7 @@
         <f>IF(E339&gt;1,(1.732*D339*F339)/1000,(D339*F339)/1000)</f>
         <v/>
       </c>
+      <c r="S339" s="9" t="n"/>
     </row>
     <row r="340">
       <c r="A340" s="5" t="n">
@@ -8736,6 +8882,7 @@
           <t>1 1/2"</t>
         </is>
       </c>
+      <c r="S340" s="9" t="n"/>
     </row>
     <row r="341">
       <c r="A341" s="5" t="n">
@@ -8751,7 +8898,7 @@
       </c>
       <c r="F341" s="7" t="n"/>
       <c r="G341" s="8" t="n"/>
-      <c r="S341" t="inlineStr">
+      <c r="S341" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -8771,7 +8918,7 @@
       </c>
       <c r="F342" s="7" t="n"/>
       <c r="G342" s="8" t="n"/>
-      <c r="S342" t="inlineStr">
+      <c r="S342" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8793,6 +8940,7 @@
       </c>
       <c r="F343" s="7" t="n"/>
       <c r="G343" s="8" t="n"/>
+      <c r="S343" s="9" t="n"/>
     </row>
     <row r="344">
       <c r="A344" s="5" t="n">
@@ -8819,6 +8967,7 @@
         <f>IF(E344&gt;1,(1.732*D344*F344)/1000,(D344*F344)/1000)</f>
         <v/>
       </c>
+      <c r="S344" s="9" t="n"/>
     </row>
     <row r="345">
       <c r="A345" s="5" t="n">
@@ -8845,6 +8994,7 @@
         <f>IF(E345&gt;1,(1.732*D345*F345)/1000,(D345*F345)/1000)</f>
         <v/>
       </c>
+      <c r="S345" s="9" t="n"/>
     </row>
     <row r="346">
       <c r="A346" s="5" t="n">
@@ -8871,6 +9021,7 @@
         <f>IF(E346&gt;1,(1.732*D346*F346)/1000,(D346*F346)/1000)</f>
         <v/>
       </c>
+      <c r="S346" s="9" t="n"/>
     </row>
     <row r="347">
       <c r="A347" s="5" t="n">
@@ -8888,6 +9039,7 @@
       </c>
       <c r="F347" s="7" t="n"/>
       <c r="G347" s="8" t="n"/>
+      <c r="S347" s="9" t="n"/>
     </row>
     <row r="348">
       <c r="A348" s="5" t="n">
@@ -8905,6 +9057,7 @@
       </c>
       <c r="F348" s="7" t="n"/>
       <c r="G348" s="8" t="n"/>
+      <c r="S348" s="9" t="n"/>
     </row>
     <row r="349">
       <c r="A349" s="5" t="n">
@@ -8933,6 +9086,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S349" s="9" t="n"/>
     </row>
     <row r="350">
       <c r="A350" s="5" t="n">
@@ -8962,6 +9116,7 @@
       <c r="M350" t="n">
         <v>1433</v>
       </c>
+      <c r="S350" s="9" t="n"/>
     </row>
     <row r="351">
       <c r="A351" s="5" t="n">
@@ -8977,7 +9132,7 @@
       </c>
       <c r="F351" s="7" t="n"/>
       <c r="G351" s="8" t="n"/>
-      <c r="S351" t="inlineStr">
+      <c r="S351" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #544</t>
         </is>
@@ -9013,7 +9168,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S352" t="inlineStr">
+      <c r="S352" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM #544</t>
         </is>
@@ -9035,6 +9190,7 @@
       </c>
       <c r="F353" s="7" t="n"/>
       <c r="G353" s="8" t="n"/>
+      <c r="S353" s="9" t="n"/>
     </row>
     <row r="354">
       <c r="A354" s="5" t="n">
@@ -9050,7 +9206,7 @@
       </c>
       <c r="F354" s="7" t="n"/>
       <c r="G354" s="8" t="n"/>
-      <c r="S354" t="inlineStr">
+      <c r="S354" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -9072,6 +9228,7 @@
       </c>
       <c r="F355" s="7" t="n"/>
       <c r="G355" s="8" t="n"/>
+      <c r="S355" s="9" t="n"/>
     </row>
     <row r="356">
       <c r="A356" s="5" t="n">
@@ -9089,6 +9246,7 @@
       </c>
       <c r="F356" s="7" t="n"/>
       <c r="G356" s="8" t="n"/>
+      <c r="S356" s="9" t="n"/>
     </row>
     <row r="357">
       <c r="A357" s="5" t="n">
@@ -9106,6 +9264,7 @@
       </c>
       <c r="F357" s="7" t="n"/>
       <c r="G357" s="8" t="n"/>
+      <c r="S357" s="9" t="n"/>
     </row>
     <row r="358">
       <c r="A358" s="5" t="inlineStr">
@@ -9125,6 +9284,7 @@
       </c>
       <c r="F358" s="7" t="n"/>
       <c r="G358" s="8" t="n"/>
+      <c r="S358" s="9" t="n"/>
     </row>
     <row r="359">
       <c r="A359" s="5" t="n">
@@ -9151,7 +9311,7 @@
         <f>IF(E359&gt;1,(1.732*D359*F359)/1000,(D359*F359)/1000)</f>
         <v/>
       </c>
-      <c r="S359" t="inlineStr">
+      <c r="S359" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -9171,7 +9331,7 @@
       </c>
       <c r="F360" s="7" t="n"/>
       <c r="G360" s="8" t="n"/>
-      <c r="S360" t="inlineStr">
+      <c r="S360" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -9191,7 +9351,7 @@
       </c>
       <c r="F361" s="7" t="n"/>
       <c r="G361" s="8" t="n"/>
-      <c r="S361" t="inlineStr">
+      <c r="S361" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -9222,7 +9382,7 @@
         <f>IF(E362&gt;1,(1.732*D362*F362)/1000,(D362*F362)/1000)</f>
         <v/>
       </c>
-      <c r="S362" t="inlineStr">
+      <c r="S362" s="9" t="inlineStr">
         <is>
           <t>BY OWNER</t>
         </is>
@@ -9244,6 +9404,7 @@
       </c>
       <c r="F363" s="7" t="n"/>
       <c r="G363" s="8" t="n"/>
+      <c r="S363" s="9" t="n"/>
     </row>
     <row r="364">
       <c r="A364" s="5" t="n">
@@ -9259,7 +9420,7 @@
       </c>
       <c r="F364" s="7" t="n"/>
       <c r="G364" s="8" t="n"/>
-      <c r="S364" t="inlineStr">
+      <c r="S364" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -9281,6 +9442,7 @@
       </c>
       <c r="F365" s="7" t="n"/>
       <c r="G365" s="8" t="n"/>
+      <c r="S365" s="9" t="n"/>
     </row>
     <row r="366">
       <c r="A366" s="5" t="n">
@@ -9298,6 +9460,7 @@
       </c>
       <c r="F366" s="7" t="n"/>
       <c r="G366" s="8" t="n"/>
+      <c r="S366" s="9" t="n"/>
     </row>
     <row r="367">
       <c r="A367" s="5" t="n">
@@ -9315,6 +9478,7 @@
       </c>
       <c r="F367" s="7" t="n"/>
       <c r="G367" s="8" t="n"/>
+      <c r="S367" s="9" t="n"/>
     </row>
     <row r="368">
       <c r="A368" s="5" t="inlineStr">
@@ -9334,6 +9498,7 @@
       </c>
       <c r="F368" s="7" t="n"/>
       <c r="G368" s="8" t="n"/>
+      <c r="S368" s="9" t="n"/>
     </row>
     <row r="369">
       <c r="A369" s="3" t="inlineStr">
@@ -9385,7 +9550,7 @@
         <f>IF(E370&gt;1,(1.732*D370*F370)/1000,(D370*F370)/1000)</f>
         <v/>
       </c>
-      <c r="S370" t="inlineStr">
+      <c r="S370" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -9405,7 +9570,7 @@
       </c>
       <c r="F371" s="7" t="n"/>
       <c r="G371" s="8" t="n"/>
-      <c r="S371" t="inlineStr">
+      <c r="S371" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -9425,7 +9590,7 @@
       </c>
       <c r="F372" s="7" t="n"/>
       <c r="G372" s="8" t="n"/>
-      <c r="S372" t="inlineStr">
+      <c r="S372" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -9461,7 +9626,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S373" t="inlineStr">
+      <c r="S373" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM #601</t>
         </is>
@@ -9492,7 +9657,7 @@
         <f>IF(E374&gt;1,(1.732*D374*F374)/1000,(D374*F374)/1000)</f>
         <v/>
       </c>
-      <c r="S374" t="inlineStr">
+      <c r="S374" s="9" t="inlineStr">
         <is>
           <t>2 RING</t>
         </is>
@@ -9531,6 +9696,7 @@
           <t>1 1/2"</t>
         </is>
       </c>
+      <c r="S375" s="9" t="n"/>
     </row>
     <row r="376">
       <c r="A376" s="5" t="n">
@@ -9546,7 +9712,7 @@
       </c>
       <c r="F376" s="7" t="n"/>
       <c r="G376" s="8" t="n"/>
-      <c r="S376" t="inlineStr">
+      <c r="S376" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -9584,7 +9750,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S377" t="inlineStr">
+      <c r="S377" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -9606,6 +9772,7 @@
       </c>
       <c r="F378" s="7" t="n"/>
       <c r="G378" s="8" t="n"/>
+      <c r="S378" s="9" t="n"/>
     </row>
     <row r="379">
       <c r="A379" s="5" t="n">
@@ -9623,6 +9790,7 @@
       </c>
       <c r="F379" s="7" t="n"/>
       <c r="G379" s="8" t="n"/>
+      <c r="S379" s="9" t="n"/>
     </row>
     <row r="380">
       <c r="A380" s="5" t="n">
@@ -9638,7 +9806,7 @@
       </c>
       <c r="F380" s="7" t="n"/>
       <c r="G380" s="8" t="n"/>
-      <c r="S380" t="inlineStr">
+      <c r="S380" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -9675,7 +9843,7 @@
       <c r="O381" t="n">
         <v>1586</v>
       </c>
-      <c r="S381" t="inlineStr">
+      <c r="S381" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -9706,7 +9874,7 @@
         <f>IF(E382&gt;1,(1.732*D382*F382)/1000,(D382*F382)/1000)</f>
         <v/>
       </c>
-      <c r="S382" t="inlineStr">
+      <c r="S382" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -9737,7 +9905,7 @@
         <f>IF(E383&gt;1,(1.732*D383*F383)/1000,(D383*F383)/1000)</f>
         <v/>
       </c>
-      <c r="S383" t="inlineStr">
+      <c r="S383" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #612</t>
         </is>
@@ -9768,7 +9936,7 @@
         <f>IF(E384&gt;1,(1.732*D384*F384)/1000,(D384*F384)/1000)</f>
         <v/>
       </c>
-      <c r="S384" t="inlineStr">
+      <c r="S384" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #612</t>
         </is>
@@ -9790,6 +9958,7 @@
       </c>
       <c r="F385" s="7" t="n"/>
       <c r="G385" s="8" t="n"/>
+      <c r="S385" s="9" t="n"/>
     </row>
     <row r="386">
       <c r="A386" s="5" t="n">
@@ -9805,7 +9974,7 @@
       </c>
       <c r="F386" s="7" t="n"/>
       <c r="G386" s="8" t="n"/>
-      <c r="S386" t="inlineStr">
+      <c r="S386" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -9828,7 +9997,7 @@
       <c r="M387" t="n">
         <v>100000</v>
       </c>
-      <c r="S387" t="inlineStr">
+      <c r="S387" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -9861,7 +10030,7 @@
       <c r="M388" t="n">
         <v>80000</v>
       </c>
-      <c r="S388" t="inlineStr">
+      <c r="S388" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -9883,6 +10052,7 @@
       </c>
       <c r="F389" s="7" t="n"/>
       <c r="G389" s="8" t="n"/>
+      <c r="S389" s="9" t="n"/>
     </row>
     <row r="390">
       <c r="A390" s="5" t="n">
@@ -9900,6 +10070,7 @@
       </c>
       <c r="F390" s="7" t="n"/>
       <c r="G390" s="8" t="n"/>
+      <c r="S390" s="9" t="n"/>
     </row>
     <row r="391">
       <c r="A391" s="5" t="n">
@@ -9918,6 +10089,7 @@
       <c r="M391" t="n">
         <v>210000</v>
       </c>
+      <c r="S391" s="9" t="n"/>
     </row>
     <row r="392">
       <c r="A392" s="5" t="n">
@@ -9946,6 +10118,7 @@
       <c r="J392" t="n">
         <v>30</v>
       </c>
+      <c r="S392" s="9" t="n"/>
     </row>
     <row r="393">
       <c r="A393" s="5" t="n">
@@ -9972,7 +10145,7 @@
         <f>IF(E393&gt;1,(1.732*D393*F393)/1000,(D393*F393)/1000)</f>
         <v/>
       </c>
-      <c r="S393" t="inlineStr">
+      <c r="S393" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -9995,7 +10168,7 @@
       <c r="M394" t="n">
         <v>20000</v>
       </c>
-      <c r="S394" t="inlineStr">
+      <c r="S394" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -10017,6 +10190,7 @@
       </c>
       <c r="F395" s="7" t="n"/>
       <c r="G395" s="8" t="n"/>
+      <c r="S395" s="9" t="n"/>
     </row>
     <row r="396">
       <c r="A396" s="5" t="n">
@@ -10035,6 +10209,7 @@
       <c r="M396" t="n">
         <v>120000</v>
       </c>
+      <c r="S396" s="9" t="n"/>
     </row>
     <row r="397">
       <c r="A397" s="5" t="n">
@@ -10050,6 +10225,7 @@
       </c>
       <c r="F397" s="7" t="n"/>
       <c r="G397" s="8" t="n"/>
+      <c r="S397" s="9" t="n"/>
     </row>
     <row r="398">
       <c r="A398" s="5" t="n">
@@ -10084,7 +10260,7 @@
       <c r="M398" t="n">
         <v>2800</v>
       </c>
-      <c r="S398" t="inlineStr">
+      <c r="S398" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -10106,6 +10282,7 @@
       </c>
       <c r="F399" s="7" t="n"/>
       <c r="G399" s="8" t="n"/>
+      <c r="S399" s="9" t="n"/>
     </row>
     <row r="400">
       <c r="A400" s="5" t="n">
@@ -10123,6 +10300,7 @@
       </c>
       <c r="F400" s="7" t="n"/>
       <c r="G400" s="8" t="n"/>
+      <c r="S400" s="9" t="n"/>
     </row>
     <row r="401">
       <c r="A401" s="5" t="n">
@@ -10152,7 +10330,7 @@
       <c r="M401" t="n">
         <v>55000</v>
       </c>
-      <c r="S401" t="inlineStr">
+      <c r="S401" s="9" t="inlineStr">
         <is>
           <t>WITH HOOD</t>
         </is>
@@ -10201,7 +10379,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S402" t="inlineStr">
+      <c r="S402" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -10221,7 +10399,7 @@
       </c>
       <c r="F403" s="7" t="n"/>
       <c r="G403" s="8" t="n"/>
-      <c r="S403" t="inlineStr">
+      <c r="S403" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #632</t>
         </is>
@@ -10259,7 +10437,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S404" t="inlineStr">
+      <c r="S404" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #632</t>
         </is>
@@ -10281,6 +10459,7 @@
       </c>
       <c r="F405" s="7" t="n"/>
       <c r="G405" s="8" t="n"/>
+      <c r="S405" s="9" t="n"/>
     </row>
     <row r="406">
       <c r="A406" s="5" t="n">
@@ -10296,7 +10475,7 @@
       </c>
       <c r="F406" s="7" t="n"/>
       <c r="G406" s="8" t="n"/>
-      <c r="S406" t="inlineStr">
+      <c r="S406" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #632</t>
         </is>
@@ -10316,7 +10495,7 @@
       </c>
       <c r="F407" s="7" t="n"/>
       <c r="G407" s="8" t="n"/>
-      <c r="S407" t="inlineStr">
+      <c r="S407" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -10347,7 +10526,7 @@
         <f>IF(E408&gt;1,(1.732*D408*F408)/1000,(D408*F408)/1000)</f>
         <v/>
       </c>
-      <c r="S408" t="inlineStr">
+      <c r="S408" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -10369,6 +10548,7 @@
       </c>
       <c r="F409" s="7" t="n"/>
       <c r="G409" s="8" t="n"/>
+      <c r="S409" s="9" t="n"/>
     </row>
     <row r="410">
       <c r="A410" s="5" t="n">
@@ -10386,6 +10566,7 @@
       </c>
       <c r="F410" s="7" t="n"/>
       <c r="G410" s="8" t="n"/>
+      <c r="S410" s="9" t="n"/>
     </row>
     <row r="411">
       <c r="A411" s="5" t="n">
@@ -10401,7 +10582,7 @@
       </c>
       <c r="F411" s="7" t="n"/>
       <c r="G411" s="8" t="n"/>
-      <c r="S411" t="inlineStr">
+      <c r="S411" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #632</t>
         </is>
@@ -10437,7 +10618,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S412" t="inlineStr">
+      <c r="S412" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM #632</t>
         </is>
@@ -10457,7 +10638,7 @@
       </c>
       <c r="F413" s="7" t="n"/>
       <c r="G413" s="8" t="n"/>
-      <c r="S413" t="inlineStr">
+      <c r="S413" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #632</t>
         </is>
@@ -10493,7 +10674,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S414" t="inlineStr">
+      <c r="S414" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM #632</t>
         </is>
@@ -10515,6 +10696,7 @@
       </c>
       <c r="F415" s="7" t="n"/>
       <c r="G415" s="8" t="n"/>
+      <c r="S415" s="9" t="n"/>
     </row>
     <row r="416">
       <c r="A416" s="5" t="n">
@@ -10554,7 +10736,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S416" t="inlineStr">
+      <c r="S416" s="9" t="inlineStr">
         <is>
           <t>2 WELLS AUTOFILL</t>
         </is>
@@ -10585,7 +10767,7 @@
         <f>IF(E417&gt;1,(1.732*D417*F417)/1000,(D417*F417)/1000)</f>
         <v/>
       </c>
-      <c r="S417" t="inlineStr">
+      <c r="S417" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -10621,7 +10803,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S418" t="inlineStr">
+      <c r="S418" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM #632</t>
         </is>
@@ -10643,6 +10825,7 @@
       </c>
       <c r="F419" s="7" t="n"/>
       <c r="G419" s="8" t="n"/>
+      <c r="S419" s="9" t="n"/>
     </row>
     <row r="420">
       <c r="A420" s="5" t="inlineStr">
@@ -10662,6 +10845,7 @@
       </c>
       <c r="F420" s="7" t="n"/>
       <c r="G420" s="8" t="n"/>
+      <c r="S420" s="9" t="n"/>
     </row>
     <row r="421">
       <c r="A421" s="3" t="inlineStr">
@@ -10702,7 +10886,7 @@
       </c>
       <c r="F422" s="7" t="n"/>
       <c r="G422" s="8" t="n"/>
-      <c r="S422" t="inlineStr">
+      <c r="S422" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -10722,7 +10906,7 @@
       </c>
       <c r="F423" s="7" t="n"/>
       <c r="G423" s="8" t="n"/>
-      <c r="S423" t="inlineStr">
+      <c r="S423" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -10742,7 +10926,7 @@
       </c>
       <c r="F424" s="7" t="n"/>
       <c r="G424" s="8" t="n"/>
-      <c r="S424" t="inlineStr">
+      <c r="S424" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -10762,7 +10946,7 @@
       </c>
       <c r="F425" s="7" t="n"/>
       <c r="G425" s="8" t="n"/>
-      <c r="S425" t="inlineStr">
+      <c r="S425" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #663</t>
         </is>
@@ -10784,6 +10968,7 @@
       </c>
       <c r="F426" s="7" t="n"/>
       <c r="G426" s="8" t="n"/>
+      <c r="S426" s="9" t="n"/>
     </row>
     <row r="427">
       <c r="A427" s="5" t="n">
@@ -10799,7 +10984,7 @@
       </c>
       <c r="F427" s="7" t="n"/>
       <c r="G427" s="8" t="n"/>
-      <c r="S427" t="inlineStr">
+      <c r="S427" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -10832,7 +11017,7 @@
       <c r="J428" t="n">
         <v>50</v>
       </c>
-      <c r="S428" t="inlineStr">
+      <c r="S428" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -10876,7 +11061,7 @@
       <c r="P429" t="n">
         <v>6100</v>
       </c>
-      <c r="S429" t="inlineStr">
+      <c r="S429" s="9" t="inlineStr">
         <is>
           <t>180°F RINSE VENTLESS</t>
         </is>
@@ -10898,6 +11083,7 @@
       </c>
       <c r="F430" s="7" t="n"/>
       <c r="G430" s="8" t="n"/>
+      <c r="S430" s="9" t="n"/>
     </row>
     <row r="431">
       <c r="A431" s="5" t="n">
@@ -10915,6 +11101,7 @@
       </c>
       <c r="F431" s="7" t="n"/>
       <c r="G431" s="8" t="n"/>
+      <c r="S431" s="9" t="n"/>
     </row>
     <row r="432">
       <c r="A432" s="5" t="n">
@@ -10930,7 +11117,7 @@
       </c>
       <c r="F432" s="7" t="n"/>
       <c r="G432" s="8" t="n"/>
-      <c r="S432" t="inlineStr">
+      <c r="S432" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -10950,7 +11137,7 @@
       </c>
       <c r="F433" s="7" t="n"/>
       <c r="G433" s="8" t="n"/>
-      <c r="S433" t="inlineStr">
+      <c r="S433" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -10991,7 +11178,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S434" t="inlineStr">
+      <c r="S434" s="9" t="inlineStr">
         <is>
           <t>180°F RINSE VENTLESS</t>
         </is>
@@ -11029,6 +11216,7 @@
           <t>2"</t>
         </is>
       </c>
+      <c r="S435" s="9" t="n"/>
     </row>
     <row r="436">
       <c r="A436" s="5" t="n">
@@ -11046,6 +11234,7 @@
       </c>
       <c r="F436" s="7" t="n"/>
       <c r="G436" s="8" t="n"/>
+      <c r="S436" s="9" t="n"/>
     </row>
     <row r="437">
       <c r="A437" s="5" t="n">
@@ -11079,7 +11268,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S437" t="inlineStr">
+      <c r="S437" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -11099,7 +11288,7 @@
       </c>
       <c r="F438" s="7" t="n"/>
       <c r="G438" s="8" t="n"/>
-      <c r="S438" t="inlineStr">
+      <c r="S438" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -11137,7 +11326,7 @@
           <t>(3)2"</t>
         </is>
       </c>
-      <c r="S439" t="inlineStr">
+      <c r="S439" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11159,6 +11348,7 @@
       </c>
       <c r="F440" s="7" t="n"/>
       <c r="G440" s="8" t="n"/>
+      <c r="S440" s="9" t="n"/>
     </row>
     <row r="441">
       <c r="A441" s="5" t="n">
@@ -11176,6 +11366,7 @@
       </c>
       <c r="F441" s="7" t="n"/>
       <c r="G441" s="8" t="n"/>
+      <c r="S441" s="9" t="n"/>
     </row>
     <row r="442">
       <c r="A442" s="5" t="n">
@@ -11191,7 +11382,7 @@
       </c>
       <c r="F442" s="7" t="n"/>
       <c r="G442" s="8" t="n"/>
-      <c r="S442" t="inlineStr">
+      <c r="S442" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -11211,7 +11402,7 @@
       </c>
       <c r="F443" s="7" t="n"/>
       <c r="G443" s="8" t="n"/>
-      <c r="S443" t="inlineStr">
+      <c r="S443" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11244,7 +11435,7 @@
       <c r="J444" t="n">
         <v>50</v>
       </c>
-      <c r="S444" t="inlineStr">
+      <c r="S444" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -11264,7 +11455,7 @@
       </c>
       <c r="F445" s="7" t="n"/>
       <c r="G445" s="8" t="n"/>
-      <c r="S445" t="inlineStr">
+      <c r="S445" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11286,6 +11477,7 @@
       </c>
       <c r="F446" s="7" t="n"/>
       <c r="G446" s="8" t="n"/>
+      <c r="S446" s="9" t="n"/>
     </row>
     <row r="447">
       <c r="A447" s="5" t="n">
@@ -11303,6 +11495,7 @@
       </c>
       <c r="F447" s="7" t="n"/>
       <c r="G447" s="8" t="n"/>
+      <c r="S447" s="9" t="n"/>
     </row>
     <row r="448">
       <c r="A448" s="5" t="n">
@@ -11318,7 +11511,7 @@
       </c>
       <c r="F448" s="7" t="n"/>
       <c r="G448" s="8" t="n"/>
-      <c r="S448" t="inlineStr">
+      <c r="S448" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -11340,6 +11533,7 @@
       </c>
       <c r="F449" s="7" t="n"/>
       <c r="G449" s="8" t="n"/>
+      <c r="S449" s="9" t="n"/>
     </row>
     <row r="450">
       <c r="A450" s="5" t="n">
@@ -11357,6 +11551,7 @@
       </c>
       <c r="F450" s="7" t="n"/>
       <c r="G450" s="8" t="n"/>
+      <c r="S450" s="9" t="n"/>
     </row>
     <row r="451">
       <c r="A451" s="5" t="n">
@@ -11374,6 +11569,7 @@
       </c>
       <c r="F451" s="7" t="n"/>
       <c r="G451" s="8" t="n"/>
+      <c r="S451" s="9" t="n"/>
     </row>
     <row r="452">
       <c r="A452" s="5" t="n">
@@ -11394,7 +11590,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S452" t="inlineStr">
+      <c r="S452" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11425,6 +11621,7 @@
         <f>IF(E453&gt;1,(1.732*D453*F453)/1000,(D453*F453)/1000)</f>
         <v/>
       </c>
+      <c r="S453" s="9" t="n"/>
     </row>
     <row r="454">
       <c r="A454" s="5" t="n">
@@ -11456,7 +11653,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S454" t="inlineStr">
+      <c r="S454" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -11497,7 +11694,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S455" t="inlineStr">
+      <c r="S455" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER FOR ITEM #693</t>
         </is>
@@ -11519,6 +11716,7 @@
       </c>
       <c r="F456" s="7" t="n"/>
       <c r="G456" s="8" t="n"/>
+      <c r="S456" s="9" t="n"/>
     </row>
     <row r="457">
       <c r="A457" s="5" t="n">
@@ -11534,7 +11732,7 @@
       </c>
       <c r="F457" s="7" t="n"/>
       <c r="G457" s="8" t="n"/>
-      <c r="S457" t="inlineStr">
+      <c r="S457" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -11556,6 +11754,7 @@
       </c>
       <c r="F458" s="7" t="n"/>
       <c r="G458" s="8" t="n"/>
+      <c r="S458" s="9" t="n"/>
     </row>
     <row r="459">
       <c r="A459" s="5" t="n">
@@ -11573,6 +11772,7 @@
       </c>
       <c r="F459" s="7" t="n"/>
       <c r="G459" s="8" t="n"/>
+      <c r="S459" s="9" t="n"/>
     </row>
     <row r="460">
       <c r="A460" s="5" t="n">
@@ -11590,6 +11790,7 @@
       </c>
       <c r="F460" s="7" t="n"/>
       <c r="G460" s="8" t="n"/>
+      <c r="S460" s="9" t="n"/>
     </row>
     <row r="461">
       <c r="A461" s="5" t="n">
@@ -11607,6 +11808,7 @@
       </c>
       <c r="F461" s="7" t="n"/>
       <c r="G461" s="8" t="n"/>
+      <c r="S461" s="9" t="n"/>
     </row>
     <row r="462">
       <c r="A462" s="3" t="inlineStr">
@@ -11658,7 +11860,7 @@
         <f>IF(E463&gt;1,(1.732*D463*F463)/1000,(D463*F463)/1000)</f>
         <v/>
       </c>
-      <c r="S463" t="inlineStr">
+      <c r="S463" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11678,7 +11880,7 @@
       </c>
       <c r="F464" s="7" t="n"/>
       <c r="G464" s="8" t="n"/>
-      <c r="S464" t="inlineStr">
+      <c r="S464" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11709,7 +11911,7 @@
         <f>IF(E465&gt;1,(1.732*D465*F465)/1000,(D465*F465)/1000)</f>
         <v/>
       </c>
-      <c r="S465" t="inlineStr">
+      <c r="S465" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -11747,7 +11949,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S466" t="inlineStr">
+      <c r="S466" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11769,6 +11971,7 @@
       </c>
       <c r="F467" s="7" t="n"/>
       <c r="G467" s="8" t="n"/>
+      <c r="S467" s="9" t="n"/>
     </row>
     <row r="468">
       <c r="A468" s="5" t="n">
@@ -11784,7 +11987,7 @@
       </c>
       <c r="F468" s="7" t="n"/>
       <c r="G468" s="8" t="n"/>
-      <c r="S468" t="inlineStr">
+      <c r="S468" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #701</t>
         </is>
@@ -11804,7 +12007,7 @@
       </c>
       <c r="F469" s="7" t="n"/>
       <c r="G469" s="8" t="n"/>
-      <c r="S469" t="inlineStr">
+      <c r="S469" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11824,7 +12027,7 @@
       </c>
       <c r="F470" s="7" t="n"/>
       <c r="G470" s="8" t="n"/>
-      <c r="S470" t="inlineStr">
+      <c r="S470" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #701</t>
         </is>
@@ -11846,6 +12049,7 @@
       </c>
       <c r="F471" s="7" t="n"/>
       <c r="G471" s="8" t="n"/>
+      <c r="S471" s="9" t="n"/>
     </row>
     <row r="472">
       <c r="A472" s="5" t="n">
@@ -11863,6 +12067,7 @@
       </c>
       <c r="F472" s="7" t="n"/>
       <c r="G472" s="8" t="n"/>
+      <c r="S472" s="9" t="n"/>
     </row>
     <row r="473">
       <c r="A473" s="5" t="n">
@@ -11878,7 +12083,7 @@
       </c>
       <c r="F473" s="7" t="n"/>
       <c r="G473" s="8" t="n"/>
-      <c r="S473" t="inlineStr">
+      <c r="S473" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -11909,6 +12114,7 @@
         <f>IF(E474&gt;1,(1.732*D474*F474)/1000,(D474*F474)/1000)</f>
         <v/>
       </c>
+      <c r="S474" s="9" t="n"/>
     </row>
     <row r="475">
       <c r="A475" s="5" t="n">
@@ -11935,6 +12141,7 @@
         <f>IF(E475&gt;1,(1.732*D475*F475)/1000,(D475*F475)/1000)</f>
         <v/>
       </c>
+      <c r="S475" s="9" t="n"/>
     </row>
     <row r="476">
       <c r="A476" s="5" t="n">
@@ -11971,6 +12178,7 @@
           <t>1-1/4"</t>
         </is>
       </c>
+      <c r="S476" s="9" t="n"/>
     </row>
     <row r="477">
       <c r="A477" s="5" t="n">
@@ -11988,6 +12196,7 @@
       </c>
       <c r="F477" s="7" t="n"/>
       <c r="G477" s="8" t="n"/>
+      <c r="S477" s="9" t="n"/>
     </row>
     <row r="478">
       <c r="A478" s="5" t="n">
@@ -12022,6 +12231,7 @@
       <c r="J478" t="n">
         <v>10</v>
       </c>
+      <c r="S478" s="9" t="n"/>
     </row>
     <row r="479">
       <c r="A479" s="5" t="n">
@@ -12053,6 +12263,7 @@
           <t>1/4"</t>
         </is>
       </c>
+      <c r="S479" s="9" t="n"/>
     </row>
     <row r="480">
       <c r="A480" s="5" t="n">
@@ -12079,6 +12290,7 @@
         <f>IF(E480&gt;1,(1.732*D480*F480)/1000,(D480*F480)/1000)</f>
         <v/>
       </c>
+      <c r="S480" s="9" t="n"/>
     </row>
     <row r="481">
       <c r="A481" s="5" t="n">
@@ -12096,6 +12308,7 @@
       </c>
       <c r="F481" s="7" t="n"/>
       <c r="G481" s="8" t="n"/>
+      <c r="S481" s="9" t="n"/>
     </row>
     <row r="482">
       <c r="A482" s="5" t="n">
@@ -12113,6 +12326,7 @@
       </c>
       <c r="F482" s="7" t="n"/>
       <c r="G482" s="8" t="n"/>
+      <c r="S482" s="9" t="n"/>
     </row>
     <row r="483">
       <c r="A483" s="5" t="n">
@@ -12139,7 +12353,7 @@
         <f>IF(E483&gt;1,(1.732*D483*F483)/1000,(D483*F483)/1000)</f>
         <v/>
       </c>
-      <c r="S483" t="inlineStr">
+      <c r="S483" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -12170,7 +12384,7 @@
         <f>IF(E484&gt;1,(1.732*D484*F484)/1000,(D484*F484)/1000)</f>
         <v/>
       </c>
-      <c r="S484" t="inlineStr">
+      <c r="S484" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -12198,7 +12412,7 @@
       <c r="J485" t="n">
         <v>10</v>
       </c>
-      <c r="S485" t="inlineStr">
+      <c r="S485" s="9" t="inlineStr">
         <is>
           <t>UNDER COUNTER FOR ITEM #714 #716. #717</t>
         </is>
@@ -12229,7 +12443,7 @@
         <f>IF(E486&gt;1,(1.732*D486*F486)/1000,(D486*F486)/1000)</f>
         <v/>
       </c>
-      <c r="S486" t="inlineStr">
+      <c r="S486" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -12251,6 +12465,7 @@
       </c>
       <c r="F487" s="7" t="n"/>
       <c r="G487" s="8" t="n"/>
+      <c r="S487" s="9" t="n"/>
     </row>
     <row r="488">
       <c r="A488" s="5" t="n">
@@ -12266,7 +12481,7 @@
       </c>
       <c r="F488" s="7" t="n"/>
       <c r="G488" s="8" t="n"/>
-      <c r="S488" t="inlineStr">
+      <c r="S488" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -12288,6 +12503,7 @@
       </c>
       <c r="F489" s="7" t="n"/>
       <c r="G489" s="8" t="n"/>
+      <c r="S489" s="9" t="n"/>
     </row>
     <row r="490">
       <c r="A490" s="5" t="n">
@@ -12305,6 +12521,7 @@
       </c>
       <c r="F490" s="7" t="n"/>
       <c r="G490" s="8" t="n"/>
+      <c r="S490" s="9" t="n"/>
     </row>
     <row r="491">
       <c r="A491" s="5" t="n">
@@ -12322,6 +12539,7 @@
       </c>
       <c r="F491" s="7" t="n"/>
       <c r="G491" s="8" t="n"/>
+      <c r="S491" s="9" t="n"/>
     </row>
     <row r="492">
       <c r="A492" s="5" t="n">
@@ -12339,6 +12557,7 @@
       </c>
       <c r="F492" s="7" t="n"/>
       <c r="G492" s="8" t="n"/>
+      <c r="S492" s="9" t="n"/>
     </row>
     <row r="493">
       <c r="A493" s="3" t="inlineStr">
@@ -12379,6 +12598,7 @@
       </c>
       <c r="F494" s="7" t="n"/>
       <c r="G494" s="8" t="n"/>
+      <c r="S494" s="9" t="n"/>
     </row>
     <row r="495">
       <c r="A495" s="5" t="n">
@@ -12399,6 +12619,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S495" s="9" t="n"/>
     </row>
     <row r="496">
       <c r="A496" s="5" t="n">
@@ -12414,7 +12635,7 @@
       </c>
       <c r="F496" s="7" t="n"/>
       <c r="G496" s="8" t="n"/>
-      <c r="S496" t="inlineStr">
+      <c r="S496" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -12452,7 +12673,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S497" t="inlineStr">
+      <c r="S497" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -12474,6 +12695,7 @@
       </c>
       <c r="F498" s="7" t="n"/>
       <c r="G498" s="8" t="n"/>
+      <c r="S498" s="9" t="n"/>
     </row>
     <row r="499">
       <c r="A499" s="5" t="n">
@@ -12489,7 +12711,7 @@
       </c>
       <c r="F499" s="7" t="n"/>
       <c r="G499" s="8" t="n"/>
-      <c r="S499" t="inlineStr">
+      <c r="S499" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -12514,6 +12736,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S500" s="9" t="n"/>
     </row>
     <row r="501">
       <c r="A501" s="5" t="n">
@@ -12529,6 +12752,7 @@
       </c>
       <c r="F501" s="7" t="n"/>
       <c r="G501" s="8" t="n"/>
+      <c r="S501" s="9" t="n"/>
     </row>
     <row r="502">
       <c r="A502" s="5" t="n">
@@ -12546,6 +12770,7 @@
       </c>
       <c r="F502" s="7" t="n"/>
       <c r="G502" s="8" t="n"/>
+      <c r="S502" s="9" t="n"/>
     </row>
     <row r="503">
       <c r="A503" s="5" t="n">
@@ -12563,6 +12788,7 @@
       </c>
       <c r="F503" s="7" t="n"/>
       <c r="G503" s="8" t="n"/>
+      <c r="S503" s="9" t="n"/>
     </row>
     <row r="504">
       <c r="A504" s="5" t="n">
@@ -12583,6 +12809,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S504" s="9" t="n"/>
     </row>
     <row r="505">
       <c r="A505" s="5" t="n">
@@ -12616,7 +12843,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S505" t="inlineStr">
+      <c r="S505" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -12641,6 +12868,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S506" s="9" t="n"/>
     </row>
     <row r="507">
       <c r="A507" s="5" t="n">
@@ -12667,6 +12895,7 @@
         <f>IF(E507&gt;1,(1.732*D507*F507)/1000,(D507*F507)/1000)</f>
         <v/>
       </c>
+      <c r="S507" s="9" t="n"/>
     </row>
     <row r="508">
       <c r="A508" s="5" t="n">
@@ -12687,6 +12916,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S508" s="9" t="n"/>
     </row>
     <row r="509">
       <c r="A509" s="5" t="n">
@@ -12707,6 +12937,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S509" s="9" t="n"/>
     </row>
     <row r="510">
       <c r="A510" s="5" t="n">
@@ -12751,7 +12982,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S510" t="inlineStr">
+      <c r="S510" s="9" t="inlineStr">
         <is>
           <t>180°</t>
         </is>
@@ -12771,6 +13002,7 @@
       </c>
       <c r="F511" s="7" t="n"/>
       <c r="G511" s="8" t="n"/>
+      <c r="S511" s="9" t="n"/>
     </row>
     <row r="512">
       <c r="A512" s="5" t="n">
@@ -12791,6 +13023,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S512" s="9" t="n"/>
     </row>
     <row r="513">
       <c r="A513" s="5" t="n">
@@ -12808,6 +13041,7 @@
       </c>
       <c r="F513" s="7" t="n"/>
       <c r="G513" s="8" t="n"/>
+      <c r="S513" s="9" t="n"/>
     </row>
     <row r="514">
       <c r="A514" s="5" t="n">
@@ -12834,7 +13068,7 @@
         <f>IF(E514&gt;1,(1.732*D514*F514)/1000,(D514*F514)/1000)</f>
         <v/>
       </c>
-      <c r="S514" t="inlineStr">
+      <c r="S514" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -12865,7 +13099,7 @@
         <f>IF(E515&gt;1,(1.732*D515*F515)/1000,(D515*F515)/1000)</f>
         <v/>
       </c>
-      <c r="S515" t="inlineStr">
+      <c r="S515" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -12896,7 +13130,7 @@
         <f>IF(E516&gt;1,(1.732*D516*F516)/1000,(D516*F516)/1000)</f>
         <v/>
       </c>
-      <c r="S516" t="inlineStr">
+      <c r="S516" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -12921,6 +13155,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S517" s="9" t="n"/>
     </row>
     <row r="518">
       <c r="A518" s="5" t="n">
@@ -12938,6 +13173,7 @@
       </c>
       <c r="F518" s="7" t="n"/>
       <c r="G518" s="8" t="n"/>
+      <c r="S518" s="9" t="n"/>
     </row>
     <row r="519">
       <c r="A519" s="5" t="n">
@@ -12953,7 +13189,7 @@
       </c>
       <c r="F519" s="7" t="n"/>
       <c r="G519" s="8" t="n"/>
-      <c r="S519" t="inlineStr">
+      <c r="S519" s="9" t="inlineStr">
         <is>
           <t>2 TAP</t>
         </is>
@@ -12984,7 +13220,7 @@
         <f>IF(E520&gt;1,(1.732*D520*F520)/1000,(D520*F520)/1000)</f>
         <v/>
       </c>
-      <c r="S520" t="inlineStr">
+      <c r="S520" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -13015,7 +13251,7 @@
         <f>IF(E521&gt;1,(1.732*D521*F521)/1000,(D521*F521)/1000)</f>
         <v/>
       </c>
-      <c r="S521" t="inlineStr">
+      <c r="S521" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -13037,6 +13273,7 @@
       </c>
       <c r="F522" s="7" t="n"/>
       <c r="G522" s="8" t="n"/>
+      <c r="S522" s="9" t="n"/>
     </row>
     <row r="523">
       <c r="A523" s="5" t="inlineStr">
@@ -13056,6 +13293,7 @@
       </c>
       <c r="F523" s="7" t="n"/>
       <c r="G523" s="8" t="n"/>
+      <c r="S523" s="9" t="n"/>
     </row>
     <row r="524">
       <c r="A524" s="3" t="inlineStr">
@@ -13107,6 +13345,7 @@
         <f>IF(E525&gt;1,(1.732*D525*F525)/1000,(D525*F525)/1000)</f>
         <v/>
       </c>
+      <c r="S525" s="9" t="n"/>
     </row>
     <row r="526">
       <c r="A526" s="5" t="n">
@@ -13127,7 +13366,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S526" t="inlineStr">
+      <c r="S526" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #776</t>
         </is>
@@ -13152,7 +13391,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S527" t="inlineStr">
+      <c r="S527" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #781</t>
         </is>
@@ -13177,7 +13416,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S528" t="inlineStr">
+      <c r="S528" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -13199,6 +13438,7 @@
       </c>
       <c r="F529" s="7" t="n"/>
       <c r="G529" s="8" t="n"/>
+      <c r="S529" s="9" t="n"/>
     </row>
     <row r="530">
       <c r="A530" s="5" t="n">
@@ -13238,7 +13478,7 @@
       <c r="P530" t="n">
         <v>4500</v>
       </c>
-      <c r="S530" t="inlineStr">
+      <c r="S530" s="9" t="inlineStr">
         <is>
           <t>500LBS AIR COOLED LARGE CUBE STYLE</t>
         </is>
@@ -13263,7 +13503,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S531" t="inlineStr">
+      <c r="S531" s="9" t="inlineStr">
         <is>
           <t>2100 LBS.</t>
         </is>
@@ -13283,7 +13523,7 @@
       </c>
       <c r="F532" s="7" t="n"/>
       <c r="G532" s="8" t="n"/>
-      <c r="S532" t="inlineStr">
+      <c r="S532" s="9" t="inlineStr">
         <is>
           <t>MOBILE 250LBS</t>
         </is>
@@ -13305,6 +13545,7 @@
       </c>
       <c r="F533" s="7" t="n"/>
       <c r="G533" s="8" t="n"/>
+      <c r="S533" s="9" t="n"/>
     </row>
     <row r="534">
       <c r="A534" s="5" t="n">
@@ -13322,6 +13563,7 @@
       </c>
       <c r="F534" s="7" t="n"/>
       <c r="G534" s="8" t="n"/>
+      <c r="S534" s="9" t="n"/>
     </row>
     <row r="535">
       <c r="A535" s="5" t="n">
@@ -13361,7 +13603,7 @@
       <c r="P535" t="n">
         <v>8500</v>
       </c>
-      <c r="S535" t="inlineStr">
+      <c r="S535" s="9" t="inlineStr">
         <is>
           <t>980LBS AIR-COOLED FLAKE STYLE</t>
         </is>
@@ -13383,6 +13625,7 @@
       </c>
       <c r="F536" s="7" t="n"/>
       <c r="G536" s="8" t="n"/>
+      <c r="S536" s="9" t="n"/>
     </row>
     <row r="537">
       <c r="A537" s="5" t="n">
@@ -13400,6 +13643,7 @@
       </c>
       <c r="F537" s="7" t="n"/>
       <c r="G537" s="8" t="n"/>
+      <c r="S537" s="9" t="n"/>
     </row>
     <row r="538">
       <c r="A538" s="5" t="n">
@@ -13417,6 +13661,7 @@
       </c>
       <c r="F538" s="7" t="n"/>
       <c r="G538" s="8" t="n"/>
+      <c r="S538" s="9" t="n"/>
     </row>
     <row r="539">
       <c r="A539" s="5" t="inlineStr">
@@ -13436,43 +13681,45 @@
       </c>
       <c r="F539" s="7" t="n"/>
       <c r="G539" s="8" t="n"/>
+      <c r="S539" s="9" t="n"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr"/>
     </row>
     <row r="541">
-      <c r="A541" s="9" t="inlineStr">
+      <c r="A541" s="10" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G541" s="10">
+      <c r="G541" s="11">
         <f>SUM(G7:G540)</f>
         <v/>
       </c>
-      <c r="J541" s="10">
+      <c r="J541" s="11">
         <f>SUM(J7:J540)</f>
         <v/>
       </c>
-      <c r="M541" s="10">
+      <c r="M541" s="11">
         <f>SUM(M7:M540)</f>
         <v/>
       </c>
-      <c r="N541" s="10">
+      <c r="N541" s="11">
         <f>SUM(N7:N540)</f>
         <v/>
       </c>
-      <c r="O541" s="10">
+      <c r="O541" s="11">
         <f>SUM(O7:O540)</f>
         <v/>
       </c>
-      <c r="P541" s="10">
+      <c r="P541" s="11">
         <f>SUM(P7:P540)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="3" fitToHeight="0"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>